--- a/hasil uji/nilaiGAMMA.xlsx
+++ b/hasil uji/nilaiGAMMA.xlsx
@@ -466,59 +466,59 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 1 0 0 1 1 0 0 1 1 0 1 1 0 0 1 0 0 0 1 1
- 1 0 0 1 1 1 0 1 1 1 1 0 1 1 0 0 1 0 1 0 0 1 1 1 1 1 0 0 1 0 0 0 1 0 0 1 1
- 1 1 0 0 1 0 1 0 1 1 0 1 0 1 1 0 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0
- 0 0 1 1 0 1 0 0 1 0 0 0 1 1 0 1 0 1 1 1 1 1 0 0 1 1 1 0 1 0 1 1 1 0 0 1 1
- 0 0 1 0 1 1 1 0 1 0 0 1 0 0 1 0 1 1 0 1 1 1 1 1 0 1 0 0 0 1 1 0 0 1 1 1 1
- 1 0 1 1 0 0 0 0 1 1 1 1 1 0 1 1 1 0 0 1 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 1 1
- 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 1 1 0 1 1 0 0 1 1
- 0 1 1 1 0 0 1 1 0 0 1 1 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 1 0 1 1 1 1 0 0 0
- 0 1 0 1 1 1 1 1 1 1 0 0 0 1 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
- 0 0 1 1 0 0 0 1 1 1 1 0 1 1 1 1 0 1 0 1 1 0 0 1 1 1 0 1 1 0 1 0 1 1 1 0 0
- 1 0 1 1 1 0 1 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1
- 1 0 0 0 1 1 1 0 0 0 1 1 0 1 0 0 0 1 0 1 1 1 1 1 0 1 0 0 1 1 0 1 0 0 1 1 0
- 1 1 0 1 1 1 1 1 1 0 0 0 1 0 1 1 1 1 1 0 0 1 1 1 1 0 1 0 0 1 0 1 0 0 1 0 1
- 1 1 1 1 0 1 1 1 1 1 0 1 1 0 0 0 1 0 1 1 0 1 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0
- 0 0 0 1 1 0 0 0 1 1 0 1 1 0 1 1 0 0 1 1 1 0 1 0 1 0 0 1 0 0 1 1 1 1 0 1 1
- 1 0 0 0 0 1 1 0 0 1 0 1 0 1 0 1 0 1 0 1 1 1 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0
- 0 0 1 0 1 1 1 1 0 0 1 0 1 0 0 1 0 0 0 0 1 1 0 1 0 1 1 0 1 1 0 1 1 1 1 1 1
- 0 1 0 0 0 0 1 1 1 0 0 0 1 0 0 1 1 0 1 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1
- 1 1 1 1 0 0 1 1 0 1 1 1 0 1 1 1 1 0 1 0 1 0 0 0 1 1 1 0 0 1 1 0 0 1 0 0 1
- 1 1 1 1 0 0 0 1 0 1 1 0 1 1 1 1 1 1 1 0 0 1 1 1 0 0 0 1 1 0 1 0 0 1 1 0 0
- 1 0 0 0 1 1 0 0 1 1 0 1 0]</t>
+          <t>[1 1 1 1 0 1 0 0 1 1 1 1 1 1 0 1 1 1 0 1 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0
+ 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 1 0 1 1 1 0 1 0 0 1 1 1 1 0 1 0 1 1
+ 0 0 0 0 0 1 0 0 1 1 1 0 1 1 0 1 0 0 0 1 0 0 0 1 1 1 0 0 1 1 1 0 1 1 0 0 0
+ 0 0 0 1 1 1 0 0 0 1 1 0 1 1 0 0 1 0 0 1 0 0 1 1 1 0 0 1 1 1 0 1 1 0 0 1 0
+ 1 1 0 0 0 1 1 1 1 1 1 1 1 1 0 0 1 1 1 0 1 0 1 1 1 1 1 1 0 0 0 1 1 0 0 0 0
+ 0 0 0 1 1 1 1 0 1 1 1 1 0 0 1 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 0 0 0 1 1 0
+ 0 1 1 1 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 1 1 0 1 1 0 1 0
+ 0 1 0 1 0 0 1 1 0 1 0 1 0 1 1 0 1 0 1 1 0 1 0 0 1 1 0 1 1 1 0 0 1 1 1 1 1
+ 0 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 0 1 1 0 1 1 0 0 1 0 0 1 0 0 0 1 1 0
+ 1 1 1 0 1 1 0 1 0 0 0 0 1 1 1 0 1 0 0 1 0 1 0 0 1 0 0 1 1 1 0 0 1 0 0 1 1
+ 1 1 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 1 1 1 0 1 1 1 1 0 1 1 0 0 0 1
+ 0 1 1 1 0 0 1 0 1 1 1 0 1 0 0 0 1 0 0 1 1 1 0 0 1 0 1 0 1 1 0 0 0 1 0 1 0
+ 0 1 1 1 1 0 0 0 1 0 1 1 1 0 0 1 1 0 0 0 0 1 0 1 0 1 0 1 1 0 0 1 0 1 0 1 1
+ 0 0 1 0 0 0 1 1 1 1 0 0 1 1 1 1 0 0 1 1 0 1 0 1 1 1 0 0 1 0 1 0 0 1 1 0 0
+ 0 0 1 0 0 1 0 1 1 1 0 0 1 1 1 1 1 0 1 0 1 0 1 1 1 0 1 1 0 0 0 1 0 1 0 0 0
+ 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 1 0
+ 0 0 1 1 0 1 1 1 0 1 1 1 0 1 0 0 1 1 0 0 1 1 1 1 1 1 1 0 1 0 1 1 0 0 0 1 0
+ 0 1 0 0 0 0 0 1 1 0 1 0 1 0 1 0 1 1 0 0 0 0 1 0 1 1 0 0 0 1 0 0 1 0 0 1 0
+ 0 0 0 0 0 1 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 1 1 0 0 1 1 1 1 0 1 1 0 1 1
+ 0 1 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 1 0 1 0 1 0 1 0 1 0 1 0 1 1 0
+ 1 0 0 0 1 0 1 0 1 1 0 1 0]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[  0   2   7   8  14  15  17  20  21  24  25  27  28  31  35  36  37  40
-  41  42  44  45  46  47  49  50  53  55  58  59  60  61  62  65  69  72
-  73  74  75  78  80  82  83  85  87  88  92  94  98  99 100 105 113 114
- 116 119 123 124 126 128 129 130 131 132 135 136 137 139 141 142 143 146
- 147 150 152 153 154 156 159 162 164 165 167 168 169 170 171 173 177 178
- 181 182 183 184 185 187 188 193 194 195 196 197 199 200 201 204 205 209
- 213 215 217 220 221 226 239 241 242 243 245 250 251 253 254 257 258 260
- 261 262 265 266 269 270 274 276 278 279 280 287 289 290 291 292 297 299
- 300 301 302 303 304 305 309 310 312 315 316 320 329 335 336 340 341 342
- 343 345 346 347 348 350 352 353 356 357 358 360 361 363 365 366 367 370
- 372 373 374 376 380 381 382 388 389 393 400 402 404 406 407 411 412 413
- 417 418 420 424 426 427 428 429 430 432 435 436 438 441 442 444 445 447
- 448 449 450 451 452 456 458 459 460 461 462 465 466 467 468 470 473 475
- 478 480 481 482 483 484 486 487 488 489 490 492 493 497 499 500 502 503
- 510 512 514 516 521 522 526 527 529 530 532 533 536 537 538 540 542 545
- 548 549 550 551 553 554 555 560 561 564 566 568 570 572 574 575 576 577
- 582 583 585 588 594 596 597 598 599 602 604 607 612 613 615 617 618 620
- 621 623 624 625 626 627 628 630 635 636 637 641 644 645 647 648 649 651
- 652 657 664 665 666 667 668 669 672 673 675 676 677 679 680 681 682 684
- 686 690 691 692 695 696 699 702 703 704 705 706 710 712 713 715 716 717
- 718 719 720 721 724 725 726 730 731 733 736 737 740 744 745 748 749 751]</t>
+          <t>[  0   1   2   3   5   8   9  10  11  12  13  15  16  17  19  21  22  23
+  26  32  43  48  51  52  54  56  58  59  60  62  65  66  67  68  70  72
+  73  79  82  83  84  86  87  89  93  97  98  99 102 103 104 106 107 114
+ 115 116 120 121 123 124 127 130 133 134 135 138 139 140 142 143 146 148
+ 149 153 154 155 156 157 158 159 160 161 164 165 166 168 170 171 172 173
+ 174 175 179 180 188 189 190 191 193 194 195 196 199 200 204 205 206 207
+ 208 209 210 219 220 223 224 225 231 232 235 238 241 244 248 249 251 252
+ 254 255 257 260 262 265 266 268 270 272 273 275 277 278 280 283 284 286
+ 287 288 291 292 293 294 295 298 300 302 303 306 307 308 309 311 312 314
+ 316 317 319 320 323 326 330 331 333 334 335 337 338 340 345 346 347 349
+ 352 354 357 360 361 362 365 368 369 370 371 373 377 381 385 387 389 392
+ 393 394 396 397 398 399 401 402 406 408 409 410 413 415 416 417 419 423
+ 426 427 428 431 433 435 436 440 442 445 446 447 448 452 454 455 456 459
+ 460 465 467 469 471 472 475 477 479 480 483 487 488 489 490 493 494 495
+ 496 499 500 502 504 505 506 509 511 514 515 520 523 525 526 527 530 531
+ 532 533 534 536 538 540 541 542 544 545 549 551 557 560 563 564 566 577
+ 579 582 588 589 590 594 595 597 598 599 601 602 603 605 608 609 612 613
+ 614 615 616 617 618 620 622 623 627 630 636 637 639 641 643 645 646 651
+ 653 654 658 661 664 671 672 677 678 680 685 688 689 690 693 694 695 696
+ 698 699 701 702 704 705 706 709 713 720 721 722 725 727 729 731 733 735
+ 737 738 740 744 746 748 749 751]</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0.9868421052631579</v>
       </c>
       <c r="E2" t="n">
-        <v>19.70284867286682</v>
+        <v>18.85205578804016</v>
       </c>
     </row>
     <row r="3">
@@ -527,59 +527,58 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[1 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 1 0 1 1 1 0 0 0 0 1 0 0
- 1 1 0 1 1 0 0 1 0 1 0 0 1 1 1 1 0 1 1 0 1 1 1 0 0 0 1 1 1 0 1 0 1 0 0 1 1
- 0 0 0 1 1 1 0 0 1 1 0 0 1 0 1 0 1 0 1 1 1 0 1 1 0 0 1 0 1 1 0 0 1 1 0 0 1
- 0 1 0 1 0 1 1 1 1 1 1 1 0 0 1 0 1 0 1 1 1 0 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1
- 0 0 0 0 0 1 1 1 0 1 0 1 1 0 1 1 0 0 0 0 0 0 1 1 1 1 0 1 1 1 1 1 0 1 1 0 0
- 0 1 0 0 1 1 1 0 1 1 0 1 0 1 1 1 1 1 1 0 0 0 1 0 0 0 0 1 1 1 0 0 0 1 0 1 1
- 0 1 1 1 1 0 0 0 1 0 0 1 1 0 0 0 1 1 0 1 0 1 1 1 1 0 0 1 1 1 0 1 0 1 1 0 0
- 1 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 1 1 1 0 1 0 0 1 1 0 1 1 0 0 0 0 1 1 0 1 1
- 1 0 1 1 0 0 0 0 1 0 1 0 1 1 1 0 0 1 0 0 0 0 0 1 0 1 1 0 0 1 1 0 0 0 1 1 1
- 0 0 0 1 0 1 0 1 0 0 1 0 0 1 1 1 0 1 1 0 0 0 0 0 1 0 1 1 0 0 0 1 1 1 0 0 0
- 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 1 1 0
- 0 0 1 1 0 0 0 0 1 0 0 0 1 1 1 0 1 1 1 0 0 0 0 1 1 0 1 0 1 1 1 1 1 1 1 0 1
- 1 1 1 0 0 1 0 0 1 1 1 1 1 1 0 1 1 1 0 1 1 0 0 1 1 1 1 0 0 0 0 0 1 1 0 0 0
- 1 1 0 0 0 0 1 0 1 1 0 0 1 1 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1
- 1 1 0 1 1 1 0 0 1 1 0 0 0 1 1 1 0 0 0 1 1 0 0 1 0 0 0 0 1 0 1 1 0 0 1 1 0
- 1 0 0 0 1 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 1 1 1 0 1 0 1 0 0 0 1 0 1 1 0 1 0
- 1 1 0 1 0 0 0 1 1 1 1 0 1 1 0 1 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 1 1 0 1 0 1
- 0 1 0 1 0 1 1 1 0 1 0 1 1 0 0 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 1 1 1 0 1 0 0
- 0 0 0 0 1 0 1 1 1 1 0 1 0 0 0 1 1 0 1 1 1 1 0 0 1 1 0 0 1 0 1 1 0 1 1 0 1
- 1 1 0 0 0 0 1 1 1 0 1 1 1 1 1 0 1 0 0 1 1 0 1 0 0 1 0 1 0 0 1 0 1 0 1 1 1
- 0 1 1 0 0 0 1 1 0 1 1 1 0]</t>
+          <t>[0 0 0 0 0 1 0 0 1 1 0 1 1 0 1 1 1 0 1 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0
+ 0 1 0 1 1 0 0 1 1 1 1 1 1 1 1 1 0 0 1 0 0 0 1 0 1 0 1 0 1 1 1 1 0 0 0 1 1
+ 1 1 0 1 1 0 0 0 0 1 0 0 0 1 0 1 1 1 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0
+ 1 1 1 0 1 1 1 0 0 1 1 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1
+ 1 1 1 0 0 1 0 0 1 1 1 1 0 1 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1
+ 1 1 1 0 1 1 1 1 1 1 0 0 1 1 1 0 0 0 0 1 1 1 1 0 0 0 0 0 1 1 0 0 1 0 1 0 0
+ 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 1 0 1 1 0 0 0 1 0 1 1 0 0 0 0 1 0 1
+ 0 1 1 0 0 0 1 0 1 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 1 1 1 1 0 1 0 0 1
+ 1 0 1 1 1 1 0 0 0 1 0 0 1 1 1 0 0 0 1 0 1 1 0 1 0 0 1 1 0 1 1 0 1 1 1 1 0
+ 1 1 1 1 1 0 1 0 0 1 1 0 1 1 0 1 0 0 1 0 0 1 0 0 0 1 1 1 1 1 1 1 1 0 0 1 1
+ 1 0 1 0 1 1 0 0 1 0 1 0 0 0 1 0 0 1 0 0 1 1 0 1 1 1 1 0 0 1 0 0 0 0 1 1 0
+ 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 1 1 1 0 1 1 0 1 1 0 0 1 1 0 1 0 0 1 0 0 1 0
+ 1 1 1 1 0 0 0 0 0 1 1 1 0 1 1 1 1 0 0 0 0 1 1 0 0 1 1 0 0 1 1 0 0 0 0 0 1
+ 1 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 0 1 1 0 1 1 0 0 0 0 0 1 0 0
+ 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 1 0 1 0 0 0
+ 0 0 1 1 0 0 0 0 1 1 1 1 0 1 0 0 1 1 0 1 1 1 1 1 1 0 0 1 1 0 1 0 0 0 0 1 1
+ 0 0 0 1 1 1 1 1 0 0 1 1 1 0 0 1 1 1 1 1 0 0 0 0 0 0 1 0 0 1 1 1 1 0 0 0 1
+ 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 1 1 0 1 0 1 0
+ 0 0 1 1 1 1 0 0 1 0 1 1 1 1 1 0 1 0 1 0 1 0 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0
+ 0 1 1 0 0 1 1 0 0 0 1 1 1 1 1 0 1 1 0 1 1 0 0 0 0 1 0 0 1 1 0 1 1 0 0 0 1
+ 0 0 1 1 0 1 1 0 0 1 0 0 0]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[  0   1   3   4  11  16  17  20  23  25  27  28  29  34  37  38  40  41
-  44  46  49  50  51  52  54  55  57  58  59  63  64  65  67  69  72  73
-  77  78  79  82  83  86  88  90  92  93  94  96  97 100 102 103 106 107
- 110 112 114 116 117 118 119 120 121 122 125 127 129 130 131 134 135 136
- 137 138 139 140 141 144 147 153 154 155 157 159 160 162 163 170 171 172
- 173 175 176 177 178 179 181 182 186 189 190 191 193 194 196 198 199 200
- 201 202 203 207 212 213 214 218 220 221 223 224 225 226 230 233 234 238
- 239 241 243 244 245 246 249 250 251 253 255 256 259 261 263 264 267 269
- 275 276 277 279 282 283 285 286 291 292 294 295 296 298 299 304 306 308
- 309 310 313 319 321 322 325 326 330 331 332 336 338 340 343 346 347 348
- 350 351 357 359 360 364 365 366 371 375 376 381 387 391 397 398 402 404
- 405 409 410 415 419 420 421 423 424 425 430 431 433 435 436 437 438 439
- 440 441 443 444 445 446 449 452 453 454 455 456 457 459 460 461 463 464
- 467 468 469 470 476 477 481 482 487 489 490 493 494 497 498 501 502 507
- 517 518 519 521 522 523 526 527 531 532 533 537 538 541 546 548 549 552
- 553 555 559 562 564 568 569 575 576 577 579 581 585 587 588 590 592 593
- 595 599 600 601 602 604 605 607 610 616 619 620 623 624 626 628 630 632
- 634 635 636 638 640 641 647 649 651 653 654 659 660 661 663 670 672 673
- 674 675 677 681 682 684 685 686 687 690 691 694 696 697 699 700 702 703
- 704 709 710 711 713 714 715 716 717 719 722 723 725 728 730 733 735 737
- 738 739 741 742 746 747 749 750 751]</t>
+          <t>[  5   8   9  11  12  14  15  16  18  21  24  27  29  31  38  40  41  44
+  45  46  47  48  49  50  51  52  55  59  61  63  65  66  67  68  72  73
+  74  75  77  78  83  87  89  90  91  95  97  99 100 104 108 111 112 113
+ 115 116 117 120 121 123 128 129 131 133 140 141 142 147 148 149 150 153
+ 156 157 158 159 161 162 165 166 167 169 177 178 183 184 185 186 187 189
+ 190 191 192 193 194 197 198 199 204 205 206 207 213 214 217 219 223 224
+ 235 236 238 240 241 243 244 248 250 251 256 258 260 261 265 267 269 271
+ 273 278 279 283 287 288 289 290 292 295 296 298 299 300 301 305 308 309
+ 310 314 316 317 319 322 323 325 326 328 329 330 331 333 334 335 336 337
+ 339 342 343 345 346 348 351 354 358 359 360 361 362 363 364 365 368 369
+ 370 372 374 375 378 380 384 387 390 391 393 394 395 396 399 404 405 408
+ 411 412 414 418 422 423 424 426 427 429 430 433 434 436 439 442 444 445
+ 446 447 453 454 455 457 458 459 460 465 466 469 470 473 474 480 481 483
+ 485 488 494 495 498 501 502 505 506 508 509 515 518 522 528 529 533 535
+ 536 537 538 539 540 541 542 545 548 549 551 557 558 563 564 565 566 568
+ 571 572 574 575 576 577 578 579 582 583 585 590 591 595 596 597 598 599
+ 602 603 604 607 608 609 610 611 618 621 622 623 624 628 632 633 640 641
+ 642 649 651 653 655 657 659 660 662 664 668 669 670 671 674 676 677 678
+ 679 680 682 684 686 689 690 692 698 699 704 705 708 709 713 714 715 716
+ 717 719 720 722 723 728 731 732 734 735 739 742 743 745 746 749]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="E3" t="n">
-        <v>17.05018877983093</v>
+        <v>18.1761486530304</v>
       </c>
     </row>
     <row r="4">
@@ -588,60 +587,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 1 1 0 1 0 0 0 1 1 1 0 0 1 0 1 0 0 0 0 1 1 1 0 1 1 1 1 1 1 1 0 0
- 1 0 0 1 1 0 1 1 1 1 0 0 0 1 1 1 0 0 1 1 1 1 1 1 1 0 0 0 0 0 1 1 1 0 0 0 0
- 1 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 1 1 1 0 0 0 1 1 1 1
- 0 1 1 1 1 1 0 0 1 0 0 0 0 0 1 0 0 1 1 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0
- 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 1 0 0 1 0 0 1 1 1 0 1 1 0 1 0 1 1 0 1 1 0 0
- 0 1 1 1 1 1 0 1 1 0 1 1 1 1 0 0 1 1 1 0 0 1 1 1 1 0 1 0 1 1 0 0 0 0 1 0 1
- 1 1 1 0 0 1 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 1 0 0 1 1 1 1 0 0 1 0 1 1
- 0 1 1 0 1 0 1 1 0 0 1 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 1 1 1 0 1 0 1 0 1 1
- 0 0 1 1 1 1 0 0 1 0 1 1 1 0 1 1 1 0 0 1 1 1 0 1 0 1 1 1 1 1 1 0 0 1 1 0 0
- 1 1 0 0 1 0 0 0 1 0 0 1 0 1 1 1 0 0 0 0 1 0 0 0 1 1 0 1 1 0 0 1 0 0 1 0 1
- 0 1 0 0 0 1 0 1 0 1 0 1 0 1 1 0 0 0 1 0 1 0 1 0 0 0 1 1 0 0 0 1 1 1 1 0 1
- 1 1 0 0 0 1 0 0 0 0 0 0 1 0 1 1 1 0 0 1 1 1 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0
- 1 1 0 1 1 1 0 0 0 0 1 0 0 1 1 0 1 1 0 0 1 1 1 0 1 1 0 1 1 0 1 1 1 1 1 0 0
- 1 1 0 1 1 1 1 0 1 0 1 0 0 0 1 0 0 1 0 1 1 1 0 0 0 1 0 0 1 0 1 1 1 1 0 0 1
- 1 0 1 1 1 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 1 0 1
- 0 0 0 1 1 0 1 0 1 1 1 0 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 1 0 1 0 1 1 1 1 0
- 0 0 0 0 1 1 1 0 1 1 1 0 0 0 1 0 1 1 0 0 1 1 0 0 1 1 1 1 0 0 1 1 1 0 0 0 0
- 0 1 0 1 1 1 1 0 1 1 0 0 1 0 1 1 0 1 0 1 0 1 1 1 0 0 0 1 1 1 0 1 1 1 0 0 0
- 1 1 0 1 0 1 0 1 0 1 1 0 0 0 0 0 1 0 1 1 1 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 0
- 0 1 1 1 1 0 0 1 1 1 0 1 0 1 1 0 0 1 1 1 1 1 0 1 1 0 1 0 0 1 1 0 0 0 1 0 1
- 0 1 1 1 1 1 1 0 1 0 1 1 1]</t>
+          <t>[0 1 1 1 1 1 1 1 1 0 0 0 0 0 1 0 0 1 1 1 1 0 0 1 0 1 0 1 1 1 0 1 1 1 1 0 0
+ 0 0 1 1 0 0 1 0 1 1 1 1 1 0 0 1 0 0 0 1 1 1 0 1 1 0 1 1 0 0 0 1 1 0 0 0 0
+ 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 1 0 0 1 1 0 1 0 0 1 0 1 0 1 1 0 1 0 1 0
+ 0 0 0 1 1 1 1 1 0 1 0 1 0 0 1 0 0 0 0 1 0 1 1 1 1 1 0 1 1 1 1 1 0 0 1 0 1
+ 0 0 1 1 1 0 0 0 0 1 1 0 0 1 0 1 1 1 0 0 1 1 1 1 1 1 0 1 0 1 0 0 0 0 0 1 0
+ 1 1 0 0 0 0 0 1 1 1 1 1 0 1 1 0 1 1 1 1 1 1 0 0 0 1 0 1 0 0 1 0 0 1 1 1 0
+ 1 0 0 1 1 1 0 1 0 0 0 0 1 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1 1 0 1 1 0
+ 1 1 1 1 1 1 1 1 0 0 1 0 1 1 0 1 1 1 1 1 0 0 0 1 1 0 0 0 1 1 0 1 1 0 1 0 1
+ 0 1 0 1 1 1 1 0 0 1 0 1 1 1 0 1 0 0 0 1 1 1 0 0 0 0 0 1 1 1 1 0 1 1 1 0 0
+ 0 0 0 1 1 1 0 0 0 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 1 0 0 0 0 1 0 1 0 0 1 1 0
+ 0 1 1 1 0 1 0 1 1 1 0 0 0 0 1 0 0 1 1 1 1 0 1 0 0 0 1 1 1 1 0 0 0 0 0 1 1
+ 1 1 1 0 0 0 0 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 0 1 0 1 1 0 1 0 1 1 1 0 0 1
+ 0 0 1 0 0 0 1 0 1 1 0 1 0 1 1 1 0 1 1 0 1 0 0 0 0 1 1 1 1 1 0 1 1 1 0 1 0
+ 1 1 0 1 0 0 1 1 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 1 1 0 0
+ 0 1 1 1 0 0 1 1 0 1 0 0 0 1 1 1 1 1 0 1 1 1 0 0 1 1 1 0 0 1 1 1 0 0 1 0 1
+ 1 1 1 1 1 0 1 1 1 0 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 0 0
+ 0 0 0 1 1 1 0 0 1 1 0 0 1 1 0 1 0 1 0 1 0 1 1 0 1 0 1 1 1 0 0 0 1 0 1 1 1
+ 1 1 1 1 0 1 1 0 1 0 1 1 0 1 0 0 0 1 0 0 1 1 0 1 0 1 0 0 1 1 0 0 1 1 1 1 0
+ 1 1 0 0 1 1 1 0 0 1 0 0 1 1 0 1 1 0 0 0 1 0 1 0 0 1 0 1 1 1 1 0 0 0 0 0 0
+ 0 0 1 1 1 1 0 1 0 0 1 0 1 0 1 0 0 0 1 1 0 0 0 0 1 0 1 1 0 1 1 1 0 0 0 1 1
+ 1 0 1 1 0 0 0 0 1 1 0 0 0]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[  0   2   3   5   6   8  12  13  14  17  19  24  25  26  28  29  30  31
-  32  33  34  37  40  41  43  44  45  46  50  51  52  55  56  57  58  59
-  60  61  67  68  69  74  75  76  82  83  90  91  92  99 101 102 103 107
- 108 109 110 112 113 114 115 116 119 125 128 129 130 132 134 135 137 154
- 156 157 161 162 163 166 169 170 171 173 174 176 178 179 181 182 186 187
- 188 189 190 192 193 195 196 197 198 201 202 203 206 207 208 209 211 213
- 214 219 221 222 223 224 227 228 234 236 238 239 245 246 249 250 251 252
- 255 257 258 260 261 263 265 266 269 273 276 279 281 282 286 287 288 290
- 292 294 295 298 299 300 301 304 306 307 308 310 311 312 315 316 317 319
- 321 322 323 324 325 326 329 330 333 334 337 341 344 346 347 348 353 357
- 358 360 361 364 367 369 371 375 377 379 381 383 384 388 390 392 396 397
- 401 402 403 404 406 407 408 412 419 421 422 423 426 427 428 435 436 438
- 441 444 445 447 448 449 454 457 458 460 461 464 465 466 468 469 471 472
- 474 475 476 477 478 481 482 484 485 486 487 489 491 495 498 500 501 502
- 506 509 511 512 513 514 517 518 520 521 522 524 531 534 536 539 541 542
- 548 552 554 558 559 561 563 564 565 567 571 572 573 574 575 576 577 583
- 585 587 588 589 590 596 597 598 600 601 602 606 608 609 612 613 616 617
- 618 619 622 623 624 630 632 633 634 635 637 638 641 643 644 646 648 650
- 651 652 656 657 658 660 661 662 666 667 669 671 673 675 676 682 684 685
- 686 689 690 691 698 699 704 705 706 707 710 711 712 714 716 717 720 721
- 722 723 724 726 727 729 732 733 737 739 741 742 743 744 745 746 748 750
- 751 752]</t>
+          <t>[  1   2   3   4   5   6   7   8  14  17  18  19  20  23  25  27  28  29
+  31  32  33  34  39  40  43  45  46  47  48  49  52  56  57  58  60  61
+  63  64  68  69  83  84  85  86  87  91  94  95  97 100 102 104 105 107
+ 109 114 115 116 117 118 120 122 125 130 132 133 134 135 136 138 139 140
+ 141 142 145 147 150 151 152 157 158 161 163 164 165 168 169 170 171 172
+ 173 175 177 183 185 186 192 193 194 195 196 198 199 201 202 203 204 205
+ 206 210 212 215 218 219 220 222 225 226 227 229 234 235 239 240 241 243
+ 245 247 249 250 251 253 254 256 257 259 260 261 262 263 264 265 266 269
+ 271 272 274 275 276 277 278 282 283 287 288 290 291 293 295 297 299 300
+ 301 302 305 307 308 309 311 315 316 317 323 324 325 326 328 329 330 336
+ 337 338 342 343 345 346 347 348 350 351 352 353 354 355 356 357 362 364
+ 367 368 371 372 373 375 377 378 379 384 387 388 389 390 392 396 397 398
+ 399 405 406 407 408 409 415 416 417 418 419 420 421 422 424 425 426 428
+ 431 433 434 436 438 439 440 443 446 450 452 453 455 457 458 459 461 462
+ 464 469 470 471 472 473 475 476 477 479 481 482 484 487 488 489 490 494
+ 496 502 505 507 509 514 515 519 520 521 524 525 527 531 532 533 534 535
+ 537 538 539 542 543 544 547 548 549 552 554 555 556 557 558 559 561 562
+ 563 566 567 572 573 577 580 582 585 588 595 596 597 600 601 604 605 607
+ 609 611 613 614 616 618 619 620 624 626 627 628 629 630 631 632 634 635
+ 637 639 640 642 646 649 650 652 654 657 658 661 662 663 664 666 667 670
+ 671 672 675 678 679 681 682 686 688 691 693 694 695 696 705 706 707 708
+ 710 713 715 717 721 722 727 729 730 732 733 734 738 739 740 742 743 748
+ 749]</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0.9605263157894737</v>
       </c>
       <c r="E4" t="n">
-        <v>18.42031407356262</v>
+        <v>19.6704728603363</v>
       </c>
     </row>
     <row r="5">
@@ -650,60 +650,59 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[1 0 1 0 1 1 1 0 1 0 0 0 1 1 1 0 0 1 0 1 0 0 1 0 0 1 0 1 1 0 0 1 1 0 1 1 1
- 1 1 1 1 0 1 1 1 1 1 1 0 1 0 1 0 1 1 0 0 1 0 0 1 1 0 1 1 0 1 1 0 1 0 0 1 1
- 0 0 0 1 1 1 1 0 0 1 0 0 0 1 1 1 0 1 0 0 1 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1
- 0 1 1 1 0 0 0 1 0 1 1 0 1 1 0 1 0 0 1 1 0 0 1 0 0 1 1 0 1 0 1 1 0 1 0 0 1
- 0 1 1 0 1 0 1 1 0 0 1 0 0 1 0 0 1 1 0 1 0 1 1 0 0 1 1 1 0 0 1 1 1 1 0 1 1
- 0 0 0 0 1 1 1 1 1 0 0 1 0 0 0 1 0 1 1 1 0 1 0 1 1 0 1 0 1 0 1 1 0 1 1 1 1
- 1 0 0 1 0 0 0 1 1 0 0 1 0 1 0 0 1 1 1 1 1 0 0 0 1 1 1 1 0 1 0 0 0 0 0 1 1
- 0 1 1 0 1 1 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 1 1 1 0 0 1
- 0 1 0 1 1 1 0 0 0 1 1 1 1 0 1 0 0 0 0 1 0 1 1 1 1 1 0 0 0 1 0 1 0 1 1 1 0
- 0 1 0 1 0 1 1 0 1 0 0 0 1 0 1 1 1 1 1 0 1 0 1 0 1 1 1 1 0 0 0 1 1 0 1 0 1
- 0 1 1 1 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 0 1 0 1 0 1 0 1 1 0 1 1
- 0 0 0 0 0 1 1 0 0 1 1 1 1 0 1 0 0 0 0 1 0 0 1 1 1 1 1 0 1 1 0 1 0 1 0 1 0
- 0 0 0 1 0 1 1 1 1 1 1 1 0 1 0 0 0 0 0 1 1 0 0 1 0 1 1 1 0 1 1 0 0 1 1 0 0
- 0 1 0 1 1 0 1 0 0 1 0 1 1 1 1 1 1 0 0 0 1 1 1 0 1 1 0 1 0 0 1 0 1 1 0 0 0
- 0 1 0 1 1 1 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 0 1 0 1 1 1 0 0 1 0 1 1 1 0 0
- 0 0 1 1 0 1 1 0 1 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 1 1 1 1 1 0 0 0 1 1 1 1
- 1 0 1 1 1 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 1 0 0 0 0 1
- 1 0 1 0 0 1 1 0 0 0 1 0 1 1 1 1 1 1 0 1 0 1 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0
- 1 0 0 1 1 0 1 0 0 1 0 0 0 0 1 1 1 1 1 0 0 0 1 0 1 0 1 0 0 1 0 0 1 1 1 1 1
- 1 1 0 1 1 1 1 0 0 1 0 0 0 1 1 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0
- 1 1 1 1 1 0 0 1 1 1 0 0 1]</t>
+          <t>[0 1 1 1 1 1 1 1 0 0 0 0 1 0 1 0 1 1 0 0 1 1 0 1 1 1 1 0 0 0 1 0 1 1 1 1 1
+ 1 0 0 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 0 1
+ 0 1 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 1 1 1 0 1 0 0 1
+ 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 1 1 1 0 1 0 1 1 0 0 0 0 1 1 0 1 0 1 0 0 1
+ 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 1 1 0 1 1 0 0 1 0 1 0 1 1 0 1 1 1 0 1 0 0 0
+ 0 1 1 0 0 0 1 0 1 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 1 0 0
+ 1 1 1 1 1 0 1 1 1 0 0 1 1 1 0 0 1 1 1 1 1 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 1
+ 1 1 0 0 0 1 1 0 0 0 1 1 0 1 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 1 1 1 1 1 0 1 0
+ 0 1 0 0 0 1 0 0 1 1 1 0 1 0 0 1 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0
+ 1 1 1 1 1 0 0 1 1 0 1 0 0 1 0 0 0 1 1 1 0 1 1 1 1 0 1 0 1 1 1 1 0 0 0 0 0
+ 1 1 1 1 1 1 1 1 1 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 1 1 1 0 1 1 0
+ 1 1 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 1 0 0 1 0 1 0
+ 1 1 0 1 0 1 1 1 0 0 1 1 1 0 1 1 1 1 1 0 0 1 1 1 0 1 1 1 0 0 1 0 0 0 0 0 0
+ 0 0 1 1 1 1 1 0 1 1 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 1
+ 1 1 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 1 0 0 1 1 1 1 0 0 0 0 1 1
+ 1 0 1 0 0 0 0 1 1 0 0 1 1 1 0 0 1 0 1 0 1 1 1 1 1 0 0 1 0 0 1 1 0 0 1 1 1
+ 0 0 0 0 1 1 0 1 0 1 1 0 1 1 1 1 0 1 0 0 0 1 1 1 1 1 0 1 1 0 0 0 0 0 1 1 0
+ 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 1 1 1 1 0 1 1 1 1 1 1 0 1 1 1 1 0 1 0
+ 1 0 1 0 1 0 1 1 0 0 0 0 1 0 1 0 1 1 1 1 0 1 0 0 0 1 0 0 1 0 0 1 0 1 1 0 1
+ 1 1 1 1 1 1 1 0 1 0 1 0 0 1 1 0 1 1 0 0 0 1 0 0 1 0 0 1 1 0 0 1 1 1 0 0 1
+ 0 1 0 0 1 1 0 1 1 0 0 1 1]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[  0   2   4   5   6   8  12  13  14  17  19  22  25  27  28  31  32  34
-  35  36  37  38  39  40  42  43  44  45  46  47  49  51  53  54  57  60
-  61  63  64  66  67  69  72  73  77  78  79  80  83  87  88  89  91  94
-  95  99 102 104 106 110 112 113 114 118 120 121 123 124 126 129 130 133
- 136 137 139 141 142 144 147 149 150 152 154 155 158 161 164 165 167 169
- 170 173 174 175 178 179 180 181 183 184 189 190 191 192 193 196 200 202
- 203 204 206 208 209 211 213 215 216 218 219 220 221 222 225 229 230 233
- 235 238 239 240 241 242 246 247 248 249 251 257 258 260 261 263 264 265
- 268 271 272 278 281 285 287 290 291 292 295 297 299 300 301 305 306 307
- 308 310 315 317 318 319 320 321 325 327 329 330 331 334 336 338 339 341
- 345 347 348 349 350 351 353 355 357 358 359 360 364 365 367 369 371 372
- 373 376 379 383 386 391 392 393 396 398 400 402 403 405 406 412 413 416
- 417 418 419 421 426 429 430 431 432 433 435 436 438 440 442 447 449 450
- 451 452 453 454 455 457 463 464 467 469 470 471 473 474 477 478 482 484
- 485 487 490 492 493 494 495 496 497 501 502 503 505 506 508 511 513 514
- 519 521 522 523 525 530 531 532 535 536 538 539 541 543 544 545 548 550
- 551 552 557 558 560 561 563 564 565 569 572 575 579 580 581 582 583 584
- 588 589 590 591 592 594 595 596 597 599 602 604 605 617 618 619 621 623
- 628 629 631 634 635 639 641 642 643 644 645 646 648 650 651 652 653 657
- 659 666 669 670 672 675 680 681 682 683 684 688 690 692 695 698 699 700
- 701 702 703 704 706 707 708 709 712 716 717 719 722 723 726 734 735 736
- 740 741 742 743 744 747 748 749 752]</t>
+          <t>[  1   2   3   4   5   6   7  12  14  16  17  20  21  23  24  25  26  30
+  32  33  34  35  36  37  42  43  45  46  47  48  49  50  51  52  56  61
+  65  66  68  71  73  75  78  79  81  82  87  91  93  96  97 101 103 104
+ 105 107 110 115 116 118 120 125 127 128 129 131 133 134 139 140 142 144
+ 147 149 154 156 161 163 164 166 167 170 172 174 175 177 178 179 181 186
+ 187 191 193 197 198 199 201 204 209 211 212 214 215 217 219 222 223 224
+ 225 226 228 229 230 233 234 235 238 239 240 241 242 245 246 251 256 258
+ 259 260 264 265 269 270 272 274 275 276 282 284 288 289 290 291 292 294
+ 297 301 304 305 306 308 311 312 314 316 320 327 328 330 333 334 335 336
+ 337 340 341 343 346 350 351 352 354 355 356 357 359 361 362 363 364 370
+ 371 372 373 374 375 376 377 378 381 382 386 388 392 395 396 400 401 402
+ 404 405 407 408 409 415 417 418 420 425 426 428 429 436 437 440 442 444
+ 445 447 449 450 451 454 455 456 458 459 460 461 462 465 466 467 469 470
+ 471 474 483 484 485 486 487 489 490 491 493 496 499 500 509 511 512 513
+ 517 518 519 520 521 525 526 533 537 539 541 542 545 546 547 548 553 554
+ 555 557 562 563 566 567 568 571 573 575 576 577 578 579 582 585 586 589
+ 590 591 596 597 599 601 602 604 605 606 607 609 613 614 615 616 617 619
+ 620 626 627 629 636 641 642 646 647 648 649 650 652 653 654 655 656 657
+ 659 660 661 662 664 666 668 670 672 673 678 680 682 683 684 685 687 691
+ 694 697 699 700 702 703 704 705 706 707 708 709 711 713 716 717 719 720
+ 724 727 730 731 734 735 736 739 741 744 745 747 748 751 752]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E5" t="n">
-        <v>17.25543761253357</v>
+        <v>19.33217668533325</v>
       </c>
     </row>
     <row r="6">
@@ -712,60 +711,59 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 1 1 0 0 0 1 1 1 1 1 1 0 0 1 0 0 0 1
- 1 0 0 1 1 0 1 1 1 1 0 1 0 0 1 1 0 0 1 0 1 0 0 1 1 0 1 0 1 0 1 0 0 0 0 1 0
- 1 1 0 0 0 1 1 1 1 1 0 1 1 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 1
- 1 0 1 0 1 1 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 1 1 0 0
- 0 0 1 0 0 0 0 1 0 1 1 0 0 1 1 0 0 0 0 1 0 1 1 0 0 0 0 1 1 0 0 0 0 1 1 1 0
- 1 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 1 1 1 1 0 0 1 0 1 1 1 0 0 1 1 1 0 0 0 1 1
- 1 1 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 1 1 0 1 0 0 0 1 0 1 0 1 0 0 1 1 1 1 0 1
- 0 0 1 0 0 1 0 0 0 0 1 1 1 1 0 1 1 1 0 0 1 1 0 0 0 0 0 0 1 1 0 1 1 1 0 0 1
- 1 1 0 0 0 1 1 0 0 1 0 1 0 1 1 1 0 1 1 0 1 0 0 0 1 0 1 1 0 0 1 1 0 1 1 1 1
- 0 1 1 1 0 1 1 1 1 1 0 0 1 0 0 1 1 0 1 0 1 0 1 0 1 1 1 0 1 1 1 1 1 1 0 0 0
- 1 0 1 0 0 0 1 1 1 1 1 1 1 0 0 0 1 1 1 1 1 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 1
- 1 1 0 0 1 1 0 1 1 0 0 1 0 1 1 1 0 0 1 1 1 0 1 1 1 0 0 1 0 0 0 1 1 1 1 0 1
- 1 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 1 1 1 0 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 1 1
- 0 1 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 1 1 0 1 1 0 1 1 1
- 1 1 0 0 1 1 1 0 0 0 1 1 1 1 0 1 0 0 0 1 0 0 1 0 1 1 0 1 1 0 1 0 0 1 1 1 0
- 1 1 0 0 1 0 1 1 1 1 1 1 0 0 1 1 0 1 0 0 0 0 1 0 1 0 0 1 1 1 1 1 0 1 1 0 1
- 1 1 0 1 0 1 1 0 0 0 1 1 0 1 1 1 0 1 0 1 0 0 0 0 1 1 1 1 0 1 0 0 1 1 1 0 1
- 0 1 1 1 1 0 0 1 1 1 1 1 0 1 0 0 1 1 0 0 1 1 1 1 1 0 0 0 0 1 1 1 1 0 1 1 1
- 1 0 0 0 0 1 0 1 1 1 1 1 0 1 1 0 1 0 1 1 0 0 1 1 1 0 0 0 1 0 1 1 1 0 1 1 1
- 0 0 0 0 1 0 0 1 1 1 0 1 1 1 0 0 0 0 0 0 0 0 1 1 1 0 1 1 1 0 0 1 0 0 0 0 1
- 0 1 0 0 0 0 1 1 0 0 1 1 0]</t>
+          <t>[1 1 0 0 1 0 1 1 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 1 0 1 1 1 0 1 0 1 1 0 0 0
+ 1 1 1 0 0 0 0 0 1 0 1 1 1 1 1 1 0 0 1 1 0 1 1 0 0 1 1 0 0 0 1 0 1 1 0 0 0
+ 1 0 0 0 1 1 0 0 0 1 0 1 0 0 1 1 1 0 0 0 1 0 1 0 1 1 0 0 1 0 1 0 1 0 0 1 1
+ 1 0 1 1 1 0 0 1 0 0 1 1 1 0 1 1 0 1 1 0 1 0 0 1 1 1 1 0 1 1 0 1 0 1 0 0 0
+ 1 0 0 1 1 1 1 1 1 1 0 0 1 0 1 0 0 1 1 1 1 1 1 0 0 1 0 1 0 1 1 1 1 0 1 1 0
+ 1 0 0 0 1 0 0 0 1 1 1 1 0 0 0 0 1 1 1 1 1 1 0 1 1 0 0 1 0 1 1 0 0 1 1 0 0
+ 1 1 0 0 1 1 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0 0 0 0 0 0 1 1 1 0 1 1 1 1 0 1 1
+ 0 1 1 0 0 1 0 0 0 1 1 1 0 1 1 0 1 1 0 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 1 1 1
+ 1 0 1 1 1 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 1 1 1 1 1 0 0 1 0 0 0 0 1 0 1 1 1
+ 0 0 0 1 1 1 0 1 0 0 0 0 1 1 1 0 1 1 0 1 0 1 1 0 0 0 0 1 0 0 0 1 1 0 0 1 1
+ 1 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 1 1 1 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1
+ 0 1 0 0 0 1 1 1 1 1 0 0 0 1 1 1 1 1 1 1 0 0 1 1 0 1 0 0 0 1 0 0 1 1 1 0 0
+ 1 0 0 1 1 0 0 1 0 1 1 1 1 0 1 1 0 1 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 0
+ 1 0 0 0 1 0 0 0 1 1 0 1 0 1 1 0 0 0 0 1 0 1 0 0 1 1 0 1 1 0 1 1 0 0 0 1 0
+ 1 1 0 1 0 1 0 1 0 0 0 0 1 1 1 1 0 0 1 1 0 0 1 1 0 0 0 1 1 1 0 0 1 1 1 1 0
+ 1 1 0 1 1 1 0 0 0 0 1 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1
+ 1 1 0 1 0 1 1 1 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 1 1 1 1 1 1 0 1 1 1
+ 1 0 1 1 1 1 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 1 0
+ 1 0 0 0 1 0 0 0 1 1 0 0 0 1 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 1 1 1 1 1 0 0
+ 1 0 0 0 1 0 0 0 1 0 1 1 1 0 1 1 0 1 1 1 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0
+ 0 0 0 1 0 0 1 1 1 0 1 0 0]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[  0   2   3   4   6   9  15  16  19  20  24  25  26  27  28  29  32  36
-  37  40  41  43  44  45  46  48  51  52  55  57  60  61  63  65  67  72
-  74  75  79  80  81  82  83  85  86  90  93  95  97 100 108 109 110 111
- 113 115 116 120 121 122 125 134 137 140 141 142 144 145 150 155 157 158
- 161 162 167 169 170 175 176 181 182 183 185 186 188 192 195 197 201 202
- 203 204 207 209 210 211 214 215 216 220 221 222 223 227 230 232 234 235
- 239 240 242 246 248 250 253 254 255 256 258 261 264 269 270 271 272 274
- 275 276 279 280 287 288 290 291 292 295 296 297 301 302 305 307 309 310
- 311 313 314 316 320 322 323 326 327 329 330 331 332 334 335 336 338 339
- 340 341 342 345 348 349 351 353 355 357 358 359 361 362 363 364 365 366
- 370 372 376 377 378 379 380 381 382 386 387 388 389 390 395 396 400 403
- 404 406 407 408 411 412 414 415 418 420 421 422 425 426 427 429 430 431
- 434 438 439 440 441 443 444 450 455 456 457 458 460 461 462 467 470 471
- 474 476 479 480 482 485 489 491 492 503 504 506 507 509 510 512 513 515
- 516 517 518 519 522 523 524 528 529 530 531 533 537 540 542 543 545 546
- 548 551 552 553 555 556 559 561 562 563 564 565 566 569 570 572 577 579
- 582 583 584 585 586 588 589 591 592 593 595 597 598 602 603 605 606 607
- 609 611 616 617 618 619 621 624 625 626 628 630 631 632 633 636 637 638
- 639 640 642 645 646 649 650 651 652 653 658 659 660 661 663 664 665 666
- 671 673 674 675 676 677 679 680 682 684 685 688 689 690 694 696 697 698
- 700 701 702 707 710 711 712 714 715 716 725 726 727 729 730 731 734 739
- 741 746 747 750 751]</t>
+          <t>[  0   1   4   6   7  10  12  15  19  20  24  26  27  28  30  32  33  37
+  38  39  45  47  48  49  50  51  52  55  56  58  59  62  63  67  69  70
+  74  78  79  83  85  88  89  90  94  96  98  99 102 104 106 109 110 111
+ 113 114 115 118 121 122 123 125 126 128 129 131 134 135 136 137 139 140
+ 142 144 148 151 152 153 154 155 156 157 160 162 165 166 167 168 169 170
+ 173 175 177 178 179 180 182 183 185 189 193 194 195 196 201 202 203 204
+ 205 206 208 209 212 214 215 218 219 222 223 226 227 229 230 231 233 235
+ 236 237 238 239 240 241 248 249 250 252 253 254 255 257 258 260 261 264
+ 268 269 270 272 273 275 276 278 282 283 286 290 293 294 295 296 298 299
+ 300 306 308 309 314 315 316 317 318 319 320 323 328 330 331 332 336 337
+ 338 340 345 346 347 349 350 352 354 355 360 364 365 368 369 370 371 375
+ 376 381 384 386 387 388 389 391 393 397 402 405 406 408 412 413 414 415
+ 416 420 421 422 423 424 425 426 429 430 432 436 439 440 441 444 447 448
+ 451 453 454 455 456 458 459 461 464 470 472 474 477 479 481 485 489 490
+ 492 494 495 500 502 505 506 508 509 511 512 516 518 519 521 523 525 530
+ 531 532 533 536 537 540 541 545 546 547 550 551 552 553 555 556 558 559
+ 560 565 568 569 572 573 576 582 589 590 591 592 593 595 597 598 599 600
+ 601 606 612 613 616 618 619 620 621 622 623 624 626 627 628 629 631 632
+ 633 634 641 642 643 647 652 653 658 660 664 666 670 674 675 679 680 682
+ 684 688 695 696 697 698 699 700 703 707 711 713 714 715 717 718 720 721
+ 722 729 730 731 733 736 743 746 747 748 750]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="E6" t="n">
-        <v>18.53194165229797</v>
+        <v>19.1794171333313</v>
       </c>
     </row>
     <row r="7">
@@ -774,58 +772,59 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[0 0 1 0 1 1 0 1 0 1 1 1 0 1 1 0 1 1 0 1 0 0 1 0 0 0 0 1 1 1 1 0 1 1 1 0 1
- 0 1 0 1 0 1 1 1 0 1 1 1 0 0 1 1 0 0 0 1 1 1 0 0 1 0 0 0 0 1 1 1 1 1 1 0 0
- 1 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 1 1 1 1 0 0 0 0 1 1
- 0 1 1 0 1 0 0 1 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 1 1 1 0 1 1 1 1 1 1 0 0 0 1
- 0 1 0 1 1 1 0 0 0 0 1 1 1 1 1 1 1 0 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 0 0 1 0
- 0 1 1 1 1 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 0 1 0 1 0 1 0 0 1
- 0 0 1 0 0 0 0 1 1 0 1 1 1 1 1 1 0 1 0 1 0 1 1 0 0 0 1 1 1 1 0 1 1 0 1 1 1
- 1 1 0 0 1 0 0 0 1 0 1 0 0 1 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0
- 1 0 1 0 0 1 1 0 0 0 1 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1
- 1 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 1 1 0 0 0 1 1 0 1 0 0 0 1 1 1
- 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 1
- 1 0 1 1 0 1 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 1 0
- 1 1 0 1 1 0 1 1 1 0 1 0 1 0 1 1 1 0 1 0 1 0 0 0 1 1 0 1 1 0 1 0 1 1 1 0 1
- 1 1 0 0 0 1 1 0 1 1 0 1 1 0 0 1 1 1 0 1 1 1 0 1 1 0 1 1 0 0 0 0 1 1 0 0 0
- 1 1 1 1 0 0 0 1 1 1 0 1 1 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 0 1 1 0 1 1 1
- 0 0 1 1 1 1 0 1 1 0 1 0 1 1 1 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1
- 1 1 1 1 0 1 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 1 1 1 1 0 1 0 0 1 0 0 1
- 1 0 1 0 1 1 0 1 1 0 1 1 1 0 0 1 1 0 0 0 0 1 1 1 0 0 0 1 1 1 1 1 0 1 1 1 1
- 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 0 1 0 1 0 0 1 1 0 0
- 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 1 0 1 0 0 0 0 1 0 1 1 0 0 1 1 1 1 0 0 0 0
- 1 1 0 1 0 0 1 1 1 0 0 1 0]</t>
+          <t>[1 1 1 0 1 0 0 1 1 1 0 1 0 0 1 0 1 1 0 1 1 0 1 0 1 0 1 0 1 0 1 0 1 1 1 1 0
+ 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 1 1
+ 0 0 1 1 1 0 1 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1 0 1 1 1 0 1 1 0 1 1 0 0 0 1 1
+ 1 0 0 1 0 1 1 1 0 0 1 1 0 1 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0
+ 1 0 0 0 0 1 0 1 1 0 1 1 0 0 0 0 0 0 1 0 0 1 1 0 1 1 1 0 0 0 0 1 1 0 0 0 1
+ 0 1 1 0 0 1 0 0 0 1 0 1 1 0 1 1 1 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1
+ 1 1 1 0 0 0 1 1 0 1 0 1 0 1 0 1 0 0 0 0 1 1 0 1 1 0 1 0 1 0 0 0 1 0 1 1 0
+ 0 0 1 0 0 1 0 1 1 1 1 1 1 0 0 1 1 0 1 0 0 1 0 1 1 0 0 0 1 0 1 0 1 0 1 0 0
+ 1 1 1 1 0 0 1 1 0 0 1 1 0 0 0 1 0 1 0 1 0 1 0 1 0 0 1 0 0 0 0 0 1 1 1 1 1
+ 1 1 0 1 1 1 1 1 1 1 0 1 1 0 0 0 1 1 0 1 1 1 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0
+ 1 0 0 0 0 1 1 0 0 1 1 0 1 1 1 1 1 0 1 1 0 0 0 1 1 1 0 0 1 0 0 0 0 0 1 0 1
+ 0 0 0 1 0 1 1 1 1 1 0 1 1 1 1 1 0 1 1 1 1 1 0 0 0 0 1 1 0 1 0 0 1 0 1 0 1
+ 1 1 0 1 1 1 1 1 1 1 1 0 1 0 1 1 0 1 0 0 1 1 1 1 1 0 0 0 0 0 1 0 0 0 0 1 1
+ 1 1 0 1 0 1 0 0 0 0 0 1 1 0 1 1 0 1 1 0 1 0 0 1 1 1 0 0 1 0 1 1 0 1 1 0 1
+ 0 0 1 1 0 1 0 1 1 0 0 1 0 0 0 1 0 1 0 1 1 1 1 1 0 0 1 0 0 0 0 0 1 0 1 0 0
+ 1 0 0 0 1 1 1 1 1 1 1 1 1 1 1 0 1 1 0 1 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 1 1
+ 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 1 0 0 1 0 0 1 0 1 0 1 1 1
+ 1 1 1 0 1 1 1 1 0 1 1 1 1 0 1 0 1 0 0 1 1 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0
+ 1 0 1 0 0 1 0 0 0 0 0 1 1 1 1 0 0 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0
+ 1 1 1 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 1 1 0 1 1 1 0 1 1 1 0 1 1 1 0 0 0
+ 1 0 1 1 1 0 1 1 0 1 1 0 0]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[  2   4   5   7   9  10  11  13  14  16  17  19  22  27  28  29  30  32
-  33  34  36  38  40  42  43  44  46  47  48  51  52  56  57  58  61  66
-  67  68  69  70  71  74  75  77  81  84  86  90  91  94  96 101 102 103
- 104 109 110 112 113 115 118 121 122 124 126 134 135 136 138 139 140 141
- 142 143 147 149 151 152 153 158 159 160 161 162 163 164 166 167 168 170
- 171 173 174 175 176 183 186 187 188 189 191 192 197 202 203 206 208 211
- 214 216 218 221 224 229 230 232 233 234 235 236 237 239 241 243 244 248
- 249 250 251 253 254 256 257 258 259 260 263 267 269 272 274 276 280 283
- 288 294 296 298 301 302 306 309 310 313 317 320 326 327 331 332 333 335
- 337 345 346 350 353 354 355 356 360 361 363 367 368 369 373 375 376 379
- 382 385 390 395 399 403 405 406 407 409 410 412 415 418 423 425 430 433
- 434 436 439 442 444 445 447 448 450 451 452 454 456 458 459 460 462 464
- 468 469 471 472 474 476 477 478 480 481 482 486 487 489 490 492 493 496
- 497 498 500 501 502 504 505 507 508 513 514 518 519 520 521 525 526 527
- 529 530 531 536 537 541 542 546 549 550 552 553 554 557 558 559 560 562
- 563 565 567 568 569 572 573 574 575 580 585 588 591 592 593 594 595 597
- 598 601 608 609 612 615 616 617 618 619 620 622 625 628 629 631 633 634
- 636 637 639 640 641 644 645 650 651 652 656 657 658 659 660 662 663 664
- 665 668 670 671 672 681 684 689 690 691 694 696 699 700 703 707 711 714
- 715 719 721 726 728 729 732 733 734 735 740 741 743 746 747 748 751]</t>
+          <t>[  0   1   2   4   7   8   9  11  14  16  17  19  20  22  24  26  28  30
+  32  33  34  35  40  42  43  45  46  48  56  58  63  64  66  72  73  76
+  77  78  80  84  86  87  88  95  97  98  99 101 102 104 105 109 110 111
+ 114 116 117 118 121 122 124 125 128 132 133 138 142 145 148 153 155 156
+ 158 159 166 169 170 172 173 174 179 180 184 186 187 190 194 196 197 199
+ 200 201 202 203 205 210 215 217 220 221 222 223 224 228 229 231 233 235
+ 237 242 243 245 246 248 250 254 256 257 261 264 266 267 268 269 270 271
+ 274 275 277 280 282 283 287 289 291 293 296 297 298 299 302 303 306 307
+ 311 313 315 317 319 322 328 329 330 331 332 333 334 336 337 338 339 340
+ 341 342 344 345 349 350 352 353 354 355 357 365 368 370 375 376 379 380
+ 382 383 384 385 386 388 389 393 394 395 398 404 406 410 412 413 414 415
+ 416 418 419 420 421 422 424 425 426 427 428 433 434 436 439 441 443 444
+ 445 447 448 449 450 451 452 453 454 456 458 459 461 464 465 466 467 468
+ 474 479 480 481 482 484 486 492 493 495 496 498 499 501 504 505 506 509
+ 511 512 514 515 517 520 521 523 525 526 529 533 535 537 538 539 540 541
+ 544 550 552 555 559 560 561 562 563 564 565 566 567 568 569 571 572 574
+ 582 583 584 585 587 590 591 593 594 595 601 606 608 609 611 612 614 616
+ 619 622 624 626 627 628 629 630 631 633 634 635 636 638 639 640 641 643
+ 645 648 649 654 656 657 659 666 668 671 677 678 679 680 683 684 685 691
+ 694 698 700 703 704 705 711 712 714 715 716 723 724 726 727 728 730 731
+ 732 734 735 736 740 742 743 744 746 747 749 750]</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>0.9736842105263158</v>
       </c>
       <c r="E7" t="n">
-        <v>18.42089557647705</v>
+        <v>18.29940223693848</v>
       </c>
     </row>
     <row r="8">
@@ -834,59 +833,58 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[1 1 0 1 1 1 0 0 1 1 0 1 0 0 0 0 1 0 0 1 1 1 0 0 0 1 1 0 1 1 1 0 0 1 1 0 0
- 0 1 0 1 1 1 1 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 0
- 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 1 0 1 1 1 0 1 0 1 1 0 0 0 0 1 0 1 1
- 1 1 1 1 0 0 0 1 1 1 1 1 1 1 1 1 0 0 0 1 1 0 0 1 0 1 1 0 1 0 1 0 0 1 1 0 1
- 0 0 1 1 0 1 0 1 0 0 1 0 0 0 1 1 1 1 1 0 1 1 0 1 1 1 0 1 0 1 1 0 0 1 1 1 0
- 1 0 1 1 0 1 1 1 1 1 1 1 1 0 1 1 0 1 1 1 1 1 1 1 0 1 0 1 0 1 1 0 1 1 1 1 1
- 0 1 0 0 1 1 1 1 1 0 0 1 0 1 0 0 1 0 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 1 0
- 1 0 0 1 0 1 0 1 1 1 0 1 1 0 1 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0
- 1 0 0 0 1 0 1 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 1 1 0 1
- 1 1 0 1 1 0 1 0 1 0 1 0 1 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 1 0 0 0 0 0 1
- 1 1 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 1 1 0 1 1 1 1 1 1 0 1 0 0 1 0 0 1 0 1 1
- 1 0 1 0 0 1 0 1 1 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 1 1 1
- 0 0 1 0 0 0 1 0 1 1 0 1 0 1 0 1 1 0 1 0 1 1 0 1 0 1 0 1 0 0 1 1 1 1 1 0 0
- 0 0 1 1 1 1 1 0 1 0 1 1 1 0 1 0 1 1 0 0 0 1 0 0 1 1 1 1 1 0 0 0 0 1 1 0 0
- 0 1 0 0 1 1 1 1 1 1 1 1 1 1 0 0 1 1 0 0 1 0 0 1 0 0 0 1 0 1 1 1 1 0 0 1 0
- 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1
- 1 0 0 1 0 1 0 1 0 1 0 1 0 0 1 1 0 1 1 0 1 0 1 0 1 1 0 1 1 0 1 0 0 0 1 1 0
- 0 1 1 1 0 1 1 1 0 1 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 1 1 1 1 1 1 1 0 0 1 0 1
- 1 0 0 0 0 1 1 1 0 0 1 1 0 1 0 1 0 1 1 1 0 1 0 0 1 1 0 1 0 0 1 1 0 1 1 0 1
- 1 0 0 1 0 0 0 0 0 1 1 1 1 0 1 0 0 1 0 1 1 0 1 1 1 0 1 1 0 1 1 0 0 0 1 1 0
- 0 0 1 1 1 0 0 0 1 1 1 0 1]</t>
+          <t>[1 0 1 1 1 0 1 1 0 0 0 1 1 0 0 1 1 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0
+ 1 1 0 1 0 1 1 0 1 1 1 1 1 0 0 1 1 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 1 1 1 1 1
+ 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 1 0 1 1 1 0 1 0 1 0 1 1 1
+ 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0
+ 0 1 1 0 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0 1 0 0 0
+ 0 1 1 1 0 1 1 0 0 1 1 1 0 1 1 1 1 0 1 1 1 1 0 0 0 0 0 1 0 1 1 1 1 0 1 0 1
+ 0 1 0 1 0 1 1 0 1 1 1 0 0 0 1 1 0 1 0 0 1 0 0 0 1 1 1 0 0 1 0 0 1 0 1 0 0
+ 0 0 1 1 0 1 1 1 0 0 1 0 0 0 1 1 0 1 0 1 1 1 1 1 1 0 0 0 1 1 1 1 1 0 0 0 0
+ 1 0 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 1 1 1 1 1 0 1 0 0 0 1 0 0 1 0 0 0 1 0
+ 0 1 1 1 0 0 0 0 0 0 1 0 1 0 0 1 1 0 1 1 0 0 0 1 1 0 0 1 0 1 0 1 0 0 1 1 0
+ 1 0 0 1 1 0 0 1 0 0 0 0 1 1 1 1 0 1 0 1 0 1 1 0 0 0 1 1 0 0 1 0 1 1 0 0 1
+ 1 1 0 1 1 1 0 1 0 1 1 1 0 0 1 0 1 0 0 0 1 1 1 0 1 0 1 1 0 0 1 1 0 0 0 0 1
+ 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 1 0 1 1 1 1 0 0 0 1
+ 1 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1
+ 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 1 1 0 1 1 0 1 1 0 1 0 1 0
+ 0 1 0 1 0 1 0 1 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 1 0 0 0 1 1
+ 0 0 0 0 0 0 1 1 1 1 1 0 0 0 1 1 0 1 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 1
+ 1 1 0 0 1 1 0 0 1 1 1 1 1 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 1 1 1 0 1 0 0 1 0
+ 1 1 1 1 1 0 0 1 0 1 0 1 0 1 0 1 1 0 0 1 0 0 0 1 1 0 1 1 0 1 0 1 0 0 1 1 0
+ 0 0 1 0 0 0 0 0 0 0 1 1 1 1 1 1 0 1 1 1 0 0 0 1 1 1 0 0 1 0 0 1 1 1 0 1 0
+ 0 1 1 0 1 0 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[  0   1   3   4   5   8   9  11  16  19  20  21  25  26  28  29  30  33
-  34  38  40  41  42  43  45  47  49  53  62  65  69  70  71  74  79  82
-  85  87  91  93  95  96  97  99 101 102 107 109 110 111 112 113 114 118
- 119 120 121 122 123 124 125 126 130 131 134 136 137 139 141 144 145 147
- 150 151 153 155 158 162 163 164 165 166 168 169 171 172 173 175 177 178
- 181 182 183 185 187 188 190 191 192 193 194 195 196 197 199 200 202 203
- 204 205 206 207 208 210 212 214 215 217 218 219 220 221 223 226 227 228
- 229 230 233 235 238 242 244 245 249 253 257 259 262 264 266 267 268 270
- 271 273 276 277 285 286 287 289 296 300 302 307 308 310 311 313 318 322
- 324 328 329 330 332 333 334 336 337 339 341 343 345 346 354 355 356 361
- 362 363 369 370 371 373 376 377 380 385 387 388 390 391 392 393 394 395
- 397 400 403 405 406 407 409 412 414 415 418 419 420 423 428 432 436 438
- 441 442 443 446 450 452 453 455 457 459 460 462 464 465 467 469 471 474
- 475 476 477 478 483 484 485 486 487 489 491 492 493 495 497 498 502 505
- 506 507 508 509 514 515 519 522 523 524 525 526 527 528 529 530 531 534
- 535 538 541 545 547 548 549 550 553 556 557 559 566 573 574 575 576 578
- 583 585 586 591 592 595 597 599 601 603 606 607 609 610 612 614 616 617
- 619 620 622 626 627 630 631 632 634 635 636 638 641 643 646 647 652 654
- 655 656 657 658 659 660 663 665 666 671 672 673 676 677 679 681 683 684
- 685 687 690 691 693 696 697 699 700 702 703 706 712 713 714 715 717 720
- 722 723 725 726 727 729 730 732 733 737 738 742 743 744 748 749 750 752]</t>
+          <t>[  0   2   3   4   6   7  11  12  15  16  17  18  20  27  31  34  35  37
+  38  40  42  43  45  46  47  48  49  52  53  55  57  59  64  66  69  70
+  71  72  73  74  80  86  91  92  94  98 100 101 102 104 106 108 109 110
+ 113 116 118 120 129 131 132 138 139 140 144 149 150 153 155 159 161 164
+ 168 173 177 178 179 181 186 187 188 190 191 194 195 196 198 199 200 201
+ 203 204 205 206 212 214 215 216 217 219 221 223 225 227 228 230 231 232
+ 236 237 239 242 246 247 248 251 254 256 261 262 264 265 266 269 273 274
+ 276 278 279 280 281 282 283 287 288 289 290 291 296 298 300 301 302 303
+ 304 305 306 307 310 313 314 315 316 317 318 320 324 327 331 334 335 336
+ 343 345 348 349 351 352 356 357 360 362 364 367 368 370 373 374 377 382
+ 383 384 385 387 389 391 392 396 397 400 402 403 406 407 408 410 411 412
+ 414 416 417 418 421 423 427 428 429 431 433 434 437 438 443 453 461 462
+ 465 466 469 471 473 474 475 476 480 481 484 490 491 494 496 497 498 502
+ 510 514 515 517 522 524 525 528 535 536 539 540 542 543 545 546 548 549
+ 551 553 556 558 560 562 565 566 569 573 576 578 579 580 581 582 583 584
+ 585 586 590 591 598 599 600 601 602 606 607 609 611 614 616 618 619 628
+ 629 630 633 634 637 638 639 640 641 644 646 650 651 652 657 658 659 661
+ 664 666 667 668 669 670 673 675 677 679 681 682 685 689 690 692 693 695
+ 697 700 701 705 713 714 715 716 717 718 720 721 722 726 727 728 731 734
+ 735 736 738 741 742 744 746 748 750 752]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="E8" t="n">
-        <v>19.32171607017517</v>
+        <v>19.92458009719849</v>
       </c>
     </row>
     <row r="9">
@@ -895,59 +893,60 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 0 1 1 0 1 1 1 0 0 1 1 1 0 0 0 1 0 1 1 1 0 1 1 0 0 0 0 1 0 0 0 0
- 0 1 0 1 0 1 1 1 1 1 0 0 0 0 0 1 0 0 1 0 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 1 1
- 1 1 0 0 1 1 0 1 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 1
- 0 0 1 1 1 1 1 0 1 0 1 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1 1 0
- 1 0 0 1 1 0 0 1 1 0 0 0 1 0 1 1 0 1 1 0 0 1 1 0 0 1 0 1 1 0 1 0 1 1 1 1 1
- 0 1 1 0 1 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 1 0 1 1 1 1 0 1 1 0 0 0 1 1 0 1 1
- 1 1 1 0 0 0 0 0 0 1 0 0 0 1 0 1 1 1 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1
- 0 1 0 0 1 1 1 1 1 0 1 0 1 0 0 1 1 1 1 1 0 0 1 0 0 1 1 0 0 1 0 1 0 1 0 0 0
- 1 0 0 1 0 1 0 0 0 0 1 0 1 1 0 0 1 0 1 1 1 0 1 0 0 1 0 1 1 1 1 0 0 1 0 1 0
- 0 0 1 1 0 0 0 0 1 1 1 1 0 0 1 1 1 1 0 0 0 0 1 0 1 1 0 1 0 1 0 1 0 0 1 1 0
- 0 1 1 1 0 0 1 1 0 1 1 1 1 1 0 0 1 1 0 1 0 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 1
- 0 0 1 0 1 0 1 1 1 0 0 0 0 1 1 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 1 1 1 0
- 0 1 0 0 0 1 0 0 0 1 1 0 1 0 0 1 1 0 0 0 1 0 1 0 1 1 1 1 1 1 0 0 1 0 1 1 0
- 0 0 1 0 0 0 0 1 1 0 1 1 1 1 1 1 0 0 1 0 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 1 1
- 0 1 1 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 1 1
- 1 1 1 0 0 0 1 1 1 0 0 1 1 0 1 0 1 0 0 1 0 0 1 0 1 0 1 0 1 1 1 1 1 1 0 0 0
- 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 1 0 0 0 1 1 1 1 0 1 0 1 0 0 0 0 1 1 1 1 0
- 0 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 1 1 0 1 1 1 0 1 1 0 1 0 1 1 0 1 1 0 0 0
- 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 1 0 1 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1
- 0 0 0 0 1 1 0 0 0 1 1 0 1 1 1 1 1 1 1 0 1 0 0 1 1 0 1 0 1 1 0 0 0 0 0 0 1
- 1 0 0 1 0 1 0 1 0 1 1 1 0]</t>
+          <t>[1 1 1 0 1 0 1 1 0 1 0 0 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0
+ 1 0 0 0 1 1 1 1 1 1 1 1 1 1 0 1 0 1 1 0 1 1 1 1 1 1 0 0 1 0 0 0 0 1 1 1 0
+ 0 1 1 1 0 0 1 1 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 1 1 0 0 1 1 0 1 1 1 1 0 1 1
+ 1 0 0 0 0 0 1 0 0 1 0 1 1 1 1 1 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 0 1 1 0 1 0
+ 0 1 0 0 0 1 0 1 0 0 0 1 1 0 1 0 1 1 1 1 0 0 0 1 1 1 0 1 1 0 0 1 1 1 0 0 1
+ 1 0 0 1 1 1 1 1 1 1 1 1 1 0 0 1 1 0 1 0 1 0 0 0 0 1 1 1 1 1 0 1 0 1 0 1 0
+ 0 1 1 0 1 1 1 1 0 1 1 1 0 1 0 0 1 0 0 1 1 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 1
+ 0 1 0 1 1 1 0 1 1 0 1 0 0 1 1 1 0 1 0 0 0 0 1 0 0 1 0 0 1 1 1 1 1 1 0 1 0
+ 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 1 1 1 1 1 0 1 1 1 1 1 0 1 0 0 1 1 0 1
+ 0 0 0 0 1 0 1 1 1 0 1 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0
+ 1 0 0 1 1 0 0 1 1 0 1 0 0 1 0 1 1 1 1 0 0 1 1 0 0 0 0 1 1 1 1 0 1 1 1 0 1
+ 1 1 0 0 1 1 0 0 1 0 0 0 0 1 1 0 1 1 0 0 1 1 1 1 0 0 1 1 0 1 0 1 0 1 1 0 1
+ 1 1 1 1 0 1 0 1 0 0 0 0 1 0 1 0 1 1 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0
+ 1 0 1 0 0 0 0 1 1 0 0 1 0 1 1 0 1 0 0 0 0 1 1 0 1 1 0 0 0 1 1 0 1 0 0 0 0
+ 0 0 1 0 1 0 1 0 1 0 1 1 1 0 1 0 1 1 1 1 1 1 0 0 0 1 0 1 1 0 1 1 1 1 1 1 0
+ 0 1 1 0 1 1 1 0 1 0 1 1 1 0 0 1 1 0 1 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0
+ 0 1 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 1 0 0 1 1 1 0 0 0 0 0
+ 0 0 1 0 1 1 0 1 1 1 1 1 0 1 0 1 0 0 0 0 0 1 1 0 1 0 1 1 0 1 0 0 0 0 1 1 0
+ 0 0 0 1 0 1 1 0 1 0 0 1 0 0 0 1 0 0 1 0 1 1 1 0 1 1 0 0 1 0 1 1 1 1 1 0 1
+ 1 1 0 0 1 0 0 0 1 1 0 1 1 1 0 1 1 1 0 1 0 1 1 1 0 1 0 0 1 0 1 1 1 0 1 1 1
+ 1 0 0 1 0 1 1 1 0 1 1 0 0]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[  0   2   6   7   9  10  11  14  15  16  20  22  23  24  26  27  32  38
-  40  42  43  44  45  46  52  55  57  58  59  60  61  62  64  68  70  71
-  72  73  74  75  78  79  81  86  87  89  90  92  97  98 100 109 110 113
- 114 115 116 117 119 121 122 123 128 132 135 137 138 140 141 143 144 145
- 146 148 151 152 155 156 160 162 163 165 166 169 170 173 175 176 178 180
- 181 182 183 184 186 187 189 192 193 196 197 200 205 207 208 209 210 212
- 213 217 218 220 221 222 223 224 231 235 237 238 239 240 242 243 249 255
- 257 258 260 263 264 265 266 267 269 271 274 275 276 277 278 281 284 285
- 288 290 292 296 299 301 306 308 309 312 314 315 316 318 321 323 324 325
- 326 329 331 335 336 341 342 343 344 347 348 349 350 355 357 358 360 362
- 364 367 368 371 372 373 376 377 379 380 381 382 383 386 387 389 391 393
- 394 396 401 406 409 411 413 414 415 420 421 422 424 426 427 433 437 440
- 441 442 445 449 453 454 456 459 460 464 466 468 469 470 471 472 473 476
- 478 479 483 488 489 491 492 493 494 495 496 499 501 503 507 508 509 511
- 513 515 516 517 519 520 521 522 524 532 537 540 541 545 546 553 554 555
- 556 557 561 562 563 566 567 569 571 574 577 579 581 583 584 585 586 587
- 588 596 601 602 604 606 608 612 613 614 615 617 619 624 625 626 627 630
- 631 632 633 634 635 637 638 639 641 643 645 646 647 649 650 651 653 654
- 656 658 659 661 662 667 672 674 678 680 681 683 684 685 692 694 699 700
- 702 707 708 712 713 715 716 717 718 719 720 721 723 726 727 729 731 732
- 739 740 743 745 747 749 750 751]</t>
+          <t>[  0   1   2   4   6   7   9  13  14  15  18  24  29  33  37  41  42  43
+  44  45  46  47  48  49  50  52  54  55  57  58  59  60  61  62  65  70
+  71  72  75  76  77  80  81  82  86  92  94  95  97  98 101 102 104 105
+ 106 107 109 110 111 117 120 122 123 124 125 126 132 134 135 139 140 143
+ 144 146 149 153 155 159 160 162 164 165 166 167 171 172 173 175 176 179
+ 180 181 184 185 188 189 190 191 192 193 194 195 196 197 200 201 203 205
+ 210 211 212 213 214 216 218 220 223 224 226 227 228 229 231 232 233 235
+ 238 241 242 246 248 251 253 258 260 262 263 264 266 267 269 272 273 274
+ 276 281 284 287 288 289 290 291 292 294 300 303 307 311 314 315 316 317
+ 318 320 321 322 323 324 326 329 330 332 337 339 340 341 343 344 346 348
+ 349 354 359 360 361 366 370 373 374 377 378 380 383 385 386 387 388 391
+ 392 397 398 399 400 402 403 404 406 407 408 411 412 415 420 421 423 424
+ 427 428 429 430 433 434 436 438 440 441 443 444 445 446 447 449 451 456
+ 458 460 461 462 463 465 470 474 479 481 483 488 489 492 494 495 497 502
+ 503 505 506 510 511 513 520 522 524 526 528 529 530 532 534 535 536 537
+ 538 539 543 545 546 548 549 550 551 552 553 556 557 559 560 561 563 565
+ 566 567 570 571 573 574 575 577 584 588 590 593 594 595 597 602 606 611
+ 614 615 617 618 621 622 623 631 633 634 636 637 638 639 640 642 644 650
+ 651 653 655 656 658 663 664 669 671 672 674 677 681 684 686 687 688 690
+ 691 694 696 697 698 699 700 702 703 704 707 711 712 714 715 716 718 719
+ 720 722 724 725 726 728 731 733 734 735 737 738 739 740 743 745 746 747
+ 749 750]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E9" t="n">
-        <v>21.0574152469635</v>
+        <v>19.47072458267212</v>
       </c>
     </row>
     <row r="10">
@@ -956,63 +955,61 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 1 0 1 1 1 0 1 1 0 0 1 1 0 0
- 0 1 1 1 0 1 1 1 1 0 0 1 1 0 0 0 1 1 0 0 1 0 0 0 1 1 1 1 1 0 0 0 0 0 0 0 1
- 0 0 1 0 1 0 1 0 0 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 0 1 0 1 1 0 1 1 1 1 0 1 1
- 1 1 1 1 1 0 1 0 1 1 1 1 1 1 0 1 1 1 0 1 0 1 1 0 0 1 1 0 0 0 1 0 0 0 1 1 1
- 1 1 1 1 0 1 1 1 1 1 1 0 0 1 1 0 1 0 0 1 1 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 1
- 0 1 1 0 1 1 0 1 0 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 1 1 1 1 1 0 0 1 1 1 0 0
- 1 1 1 1 1 0 1 1 0 0 0 1 0 1 0 1 1 0 1 1 1 0 0 0 1 0 0 1 1 1 0 1 1 0 0 1 0
- 0 1 1 1 1 0 0 1 1 0 0 1 1 1 1 0 1 0 1 0 0 1 0 1 1 1 1 1 0 0 0 0 0 1 0 1 1
- 1 0 0 0 1 0 1 1 1 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 1 1 1 1 1 0 1 0 1 1 1
- 1 1 0 1 1 1 1 1 0 1 0 1 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 1 1
- 1 0 1 0 1 1 1 1 1 1 1 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 1 1 1 0 0
- 1 0 0 1 1 0 0 1 1 1 1 1 0 0 1 1 1 1 1 0 1 0 0 1 0 1 0 0 0 1 1 0 1 1 1 1 0
- 1 1 1 0 1 1 0 0 0 1 0 0 0 1 1 0 1 1 1 1 1 1 0 1 1 1 1 1 1 0 0 1 1 0 1 0 1
- 1 1 1 0 0 1 1 0 1 1 1 0 0 0 1 1 0 1 0 0 1 1 0 0 1 1 0 1 1 0 1 1 1 1 1 0 0
- 0 1 0 1 0 1 1 1 1 0 1 0 0 0 1 1 0 1 0 0 1 1 1 1 0 1 0 0 0 1 1 1 1 0 1 1 1
- 1 0 1 0 0 0 0 1 1 1 1 0 0 1 1 1 1 1 0 1 0 0 1 0 0 1 1 1 1 1 1 1 1 1 0 0 0
- 0 1 0 1 0 1 1 1 1 0 0 1 0 1 1 0 1 0 1 0 0 0 1 1 0 1 1 0 0 0 0 1 1 1 0 1 0
- 1 1 0 0 1 1 0 1 0 1 0 0 1 1 0 1 1 1 0 0 0 0 1 1 1 1 1 0 1 1 1 0 0 1 1 1 1
- 1 1 1 1 0 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 0 1 0 0 0 0 1 1 1 1
- 0 1 0 1 0 0 0 0 1 1 0 1 0 1 1 0 1 1 1 0 0 0 1 0 0 0 1 1 1 1 1 1 0 1 1 1 0
- 0 1 0 0 0 0 0 0 1 1 1 0 0]</t>
+          <t>[1 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 1 1 1 1 1 0 1 0 0 1 0 0 0 1 0 0 1
+ 0 0 1 1 1 0 1 1 1 0 1 1 1 0 0 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0 1 0 0 0 0 1
+ 1 1 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0
+ 0 0 1 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 1 0 1 1 0 1 1 0 1 0 0 1 0 0 0 0 1 1
+ 1 1 1 0 1 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 1 0 1 0 1 0 0 1 1 0 1 0 1 0 0 0 0
+ 1 0 0 1 1 0 1 0 0 1 1 0 1 0 1 0 0 1 1 1 1 0 0 1 1 0 1 0 0 1 1 0 1 0 0 1 1
+ 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 1 0 1 1 0 0 1 1 0 1 1 0 1 0 0 0 0 1 1 1 1 0
+ 1 1 0 1 0 1 0 0 0 0 0 1 0 1 1 1 1 0 1 1 1 1 1 0 0 1 1 0 0 0 1 1 1 1 1 1 1
+ 1 0 0 1 1 1 1 0 1 1 1 0 1 0 0 0 0 1 0 1 1 1 1 0 1 1 0 0 0 0 1 0 1 0 1 1 0
+ 1 0 0 1 1 1 1 0 0 1 1 0 1 1 0 1 0 1 1 1 1 1 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0
+ 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 1 1 1 1
+ 0 1 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 1 0 1 1 0 1 0 1 1 1 1 1
+ 0 1 1 0 1 0 1 1 1 1 1 0 1 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 1 1 1 1 0 0 0 0 1
+ 1 0 0 1 0 1 0 0 1 1 1 1 1 0 1 1 0 1 1 1 1 1 1 1 1 1 0 1 0 1 0 1 0 0 0 0 0
+ 1 1 0 0 0 1 0 1 1 1 1 1 1 1 1 1 1 1 0 1 1 0 0 1 1 1 0 1 1 1 0 1 0 0 1 1 0
+ 0 0 0 1 1 0 0 0 0 1 0 0 1 1 1 0 0 0 1 1 1 1 0 1 1 0 1 0 1 1 0 0 1 0 0 0 0
+ 0 0 1 1 1 1 0 0 1 1 1 1 1 0 0 0 1 1 0 1 0 1 0 1 1 0 1 1 0 0 0 1 1 1 1 1 0
+ 1 1 1 1 1 0 1 1 1 1 1 0 1 0 1 0 1 1 1 0 1 1 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0
+ 1 0 1 1 1 1 1 1 0 1 1 0 0 0 0 0 1 1 1 0 1 1 0 0 1 1 0 0 0 1 1 1 0 1 1 0 1
+ 1 1 1 0 1 1 1 0 1 1 1 1 0 0 1 0 0 0 1 1 0 0 1 0 1 1 1 0 0 0 1 1 0 1 1 0 1
+ 0 0 0 0 0 1 1 1 1 1 0 0 0]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[  5   6   7   8   9  11  12  13  14  15  16  17  18  20  21  22  23  25
-  26  27  29  30  33  34  38  39  40  42  43  44  45  48  49  53  54  57
-  61  62  63  64  65  73  76  78  80  83  84  85  86  87  88  89  90  91
-  92  93  94  95  97  99 101 102 104 105 106 107 109 110 111 112 113 114
- 115 117 119 120 121 122 123 124 126 127 128 130 132 133 136 137 141 145
- 146 147 148 149 150 151 153 154 155 156 157 158 161 162 164 167 168 169
- 175 178 180 183 184 186 187 189 190 192 194 198 199 204 205 210 211 212
- 213 214 217 218 219 222 223 224 225 226 228 229 233 235 237 238 240 241
- 242 246 249 250 251 253 254 257 260 261 262 263 266 267 270 271 272 273
- 275 277 280 282 283 284 285 286 292 294 295 296 300 302 303 304 305 309
- 310 315 317 320 322 323 324 325 326 328 330 331 332 333 334 336 337 338
- 339 340 342 344 346 348 354 356 358 362 368 369 370 372 374 375 376 377
- 378 379 380 384 385 391 392 398 400 402 403 404 407 410 411 414 415 416
- 417 418 421 422 423 424 425 427 430 432 436 437 439 440 441 442 444 445
- 446 448 449 453 457 458 460 461 462 463 464 465 467 468 469 470 471 472
- 475 476 478 480 481 482 483 486 487 489 490 491 495 496 498 501 502 505
- 506 508 509 511 512 513 514 515 519 521 523 524 525 526 528 532 533 535
- 538 539 540 541 543 547 548 549 550 552 553 554 555 557 562 563 564 565
- 568 569 570 571 572 574 577 580 581 582 583 584 585 586 587 588 593 595
- 597 598 599 600 603 605 606 608 610 614 615 617 618 623 624 625 627 629
- 630 633 634 636 638 641 642 644 645 646 651 652 653 654 655 657 658 659
- 662 663 664 665 666 667 668 669 671 672 673 674 675 676 678 679 680 681
- 682 683 684 685 686 687 688 689 691 692 694 699 700 701 702 704 706 711
- 712 714 716 717 719 720 721 725 729 730 731 732 733 734 736 737 738 741
- 748 749 750]</t>
+          <t>[  0   2   6   7  12  14  19  20  21  22  23  24  26  29  33  36  39  40
+  41  43  44  45  47  48  49  52  53  54  55  56  57  60  62  63  64  65
+  66  68  73  74  75  78  80  81  84  92  93  95  96  98 100 102 103 106
+ 107 108 109 113 114 115 117 123 128 129 130 132 133 135 136 138 141 146
+ 147 148 149 150 152 154 156 159 165 166 168 170 172 175 176 178 180 185
+ 188 189 191 194 195 197 199 202 203 204 205 208 209 211 214 215 217 220
+ 221 222 226 232 234 235 237 239 240 243 244 246 247 249 254 255 256 257
+ 259 260 262 264 270 272 273 274 275 277 278 279 280 281 284 285 289 290
+ 291 292 293 294 295 296 299 300 301 302 304 305 306 308 313 315 316 317
+ 318 320 321 326 328 330 331 333 336 337 338 339 342 343 345 346 348 350
+ 351 352 353 354 361 363 364 367 371 374 375 376 384 385 387 394 396 398
+ 399 402 403 404 405 406 408 410 411 412 414 425 427 428 429 430 432 434
+ 435 437 439 440 441 442 443 445 446 448 450 451 452 453 454 456 458 461
+ 466 467 470 472 473 474 475 480 481 484 486 489 490 491 492 493 495 496
+ 498 499 500 501 502 503 504 505 506 508 510 512 518 519 523 525 526 527
+ 528 529 530 531 532 533 534 535 537 538 541 542 543 545 546 547 549 552
+ 553 558 559 564 567 568 569 573 574 575 576 578 579 581 583 584 587 594
+ 595 596 597 600 601 602 603 604 608 609 611 613 615 616 618 619 623 624
+ 625 626 627 629 630 631 632 633 635 636 637 638 639 641 643 645 646 647
+ 649 650 651 654 658 663 664 666 668 669 670 671 672 673 675 676 682 683
+ 684 686 687 690 691 695 696 697 699 700 702 703 704 705 707 708 709 711
+ 712 713 714 717 721 722 725 727 728 729 733 734 736 737 739 745 746 747
+ 748 749]</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0.9605263157894737</v>
       </c>
       <c r="E10" t="n">
-        <v>24.91719388961792</v>
+        <v>19.93496680259705</v>
       </c>
     </row>
     <row r="11">
@@ -1021,60 +1018,59 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[1 1 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 1 1 1
- 1 0 1 0 1 1 0 1 1 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 1 1 1 1 0 0 0 1 1 1 0 0 1
- 1 1 1 1 0 1 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 1 1 0 0 1
- 1 0 1 1 0 1 1 0 1 0 1 0 0 1 1 0 1 0 1 1 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 1 1
- 1 0 1 0 1 0 1 1 0 1 1 1 0 1 0 1 1 1 0 1 1 0 0 0 1 1 0 1 0 0 1 0 1 1 0 1 1
- 1 0 0 0 0 1 1 0 1 0 0 1 1 0 1 1 0 0 0 0 1 1 0 0 1 1 0 1 0 0 1 0 0 1 1 1 0
- 0 0 0 0 0 1 0 1 0 0 1 1 1 1 1 1 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0
- 0 1 0 1 1 1 1 0 0 0 1 0 0 1 1 0 0 0 1 1 0 1 1 1 0 1 0 1 0 1 0 0 1 0 1 0 1
- 1 0 1 0 1 1 0 0 0 1 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 1 1 1 1 1 0 1 0 0 0 0 1
- 1 0 0 1 1 0 0 0 1 1 1 0 0 1 1 1 1 1 1 0 0 0 1 0 1 0 0 1 0 1 1 0 1 0 1 1 0
- 1 1 1 1 0 1 1 1 0 1 1 0 1 1 1 1 0 1 0 0 1 0 0 0 1 0 1 1 0 1 1 0 1 1 0 0 1
- 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 1 0 1 0 1 1 0 1 1 0 1 1 1 1 0 1 0 0 1 0 0
- 0 0 1 0 0 1 1 0 1 0 1 0 0 1 0 0 1 0 1 1 0 1 0 1 1 0 1 1 0 1 0 0 1 1 0 1 1
- 1 0 1 1 1 0 0 0 1 1 0 0 1 0 1 0 1 0 0 1 1 1 0 0 0 0 1 0 1 1 1 1 1 1 1 1 1
- 1 1 0 1 1 1 0 1 1 0 0 0 1 0 1 1 1 0 0 1 0 0 1 1 1 1 0 1 0 0 1 0 1 1 0 1 1
- 0 0 1 1 0 1 1 1 0 1 0 1 1 0 1 0 1 1 1 0 1 1 1 0 0 1 1 1 1 0 1 1 1 0 0 1 1
- 0 0 1 1 1 1 0 0 1 0 0 0 0 1 1 1 1 0 0 1 0 0 1 0 1 1 1 1 0 0 1 1 0 1 1 1 0
- 1 1 1 0 1 1 1 1 1 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0
- 1 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 1 1 1 1 1 0 0 0 1 1 0 1
- 0 0 1 0 0 1 1 0 0 0 1 1 0 1 1 0 0 0 1 0 1 0 1 0 0 0 1 1 0 0 1 0 1 1 1 1 0
- 1 0 1 0 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 1 1 0 1 0 1 1 0 1 1 0 1 0 0 1 0 1 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0
+ 1 0 0 1 0 0 1 1 1 0 1 1 0 1 1 0 0 0 0 0 0 0 0 1 0 1 1 0 1 1 1 0 1 1 0 1 1
+ 1 1 1 1 0 1 0 0 0 0 1 1 1 0 1 1 0 0 0 0 1 1 1 1 0 0 1 0 1 0 0 1 0 0 0 1 0
+ 0 1 1 0 0 0 0 1 0 1 0 1 1 1 0 1 0 1 1 0 0 0 1 1 1 1 1 0 1 0 0 1 0 1 0 1 1
+ 0 0 1 1 1 1 0 0 1 1 1 0 1 1 0 0 0 1 0 0 0 1 1 0 0 1 1 0 1 0 0 0 0 1 1 0 0
+ 1 0 0 1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 0 0 0 0 1 1 0 1 1 0 1 0 1 0 1 1 0 0
+ 1 0 0 1 1 0 1 1 0 1 0 0 0 1 1 1 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 1 1 0
+ 0 1 0 0 1 1 1 1 1 0 1 1 0 0 1 1 0 0 1 0 1 1 0 0 1 1 0 1 0 0 0 1 1 1 0 1 1
+ 0 1 1 1 0 1 0 0 0 0 1 0 1 0 1 1 1 0 1 0 1 0 0 1 1 0 0 1 0 0 1 0 1 0 1 1 1
+ 0 1 0 1 0 0 1 1 1 0 1 0 1 0 0 1 1 0 0 0 0 1 0 1 1 1 0 0 0 0 1 1 1 0 0 0 0
+ 0 0 1 0 1 0 1 1 1 1 0 0 0 0 1 0 0 1 1 1 0 1 0 1 1 1 0 0 0 0 1 0 1 1 0 0 0
+ 0 1 0 0 0 1 0 0 1 1 1 0 1 0 1 1 1 1 1 0 1 1 1 1 0 0 1 0 1 1 1 1 1 1 1 1 1
+ 1 1 0 0 1 0 1 1 0 0 0 1 0 1 1 1 0 0 1 1 0 1 1 0 1 1 0 0 1 1 1 0 0 1 1 0 1
+ 0 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 0 1 1 1 1 0 0 0 1 0 0 0 0 0 1 0 1 1 1 0 1
+ 1 0 1 1 0 1 0 1 0 0 1 0 1 1 0 1 0 1 0 0 1 1 0 1 0 1 1 1 1 0 0 1 1 1 0 1 0
+ 1 0 1 1 1 1 0 1 0 0 0 1 1 0 0 1 1 1 0 0 1 1 0 1 0 0 1 1 1 0 0 0 1 1 0 0 0
+ 0 1 1 0 0 1 0 0 0 1 1 0 0 1 1 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 1 0 0 0
+ 1 0 1 1 0 1 1 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 1 1 0 1 0 1
+ 1 0 1 0 0 1 1 0 1 0 1 1 0 0 1 1 1 1 0 1 0 1 1 1 1 0 1 0 1 1 1 0 1 0 0 0 0
+ 1 1 1 0 1 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0
+ 1 1 0 1 0 1 0 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[  0   1   5   6   8  11  18  24  25  26  28  34  35  36  37  39  41  42
-  44  45  48  49  57  59  61  62  63  64  68  69  70  73  74  75  76  77
-  79  80  84  85  86  87  88  89  90  96  99 101 103 106 107 110 111 113
- 114 116 117 119 121 124 125 127 129 130 132 133 134 140 142 145 146 147
- 148 150 152 154 155 157 158 159 161 163 164 165 167 168 172 173 175 178
- 180 181 183 184 185 190 191 193 196 197 199 200 205 206 209 210 212 215
- 218 219 220 227 229 232 233 234 235 236 237 238 239 240 241 245 254 257
- 260 262 263 264 265 269 272 273 277 278 280 281 282 284 286 288 291 293
- 295 296 298 300 301 305 307 308 313 314 317 321 322 323 324 325 327 332
- 333 336 337 341 342 343 346 347 348 349 350 351 355 357 360 362 363 365
- 367 368 370 371 372 373 375 376 377 379 380 382 383 384 385 387 390 394
- 396 397 399 400 402 403 406 415 417 418 420 423 425 427 428 430 431 433
- 434 435 436 438 441 446 449 450 452 454 457 460 462 463 465 467 468 470
- 471 473 476 477 479 480 481 483 484 485 489 490 493 495 497 500 501 502
- 507 509 510 511 512 513 514 515 516 517 518 519 521 522 523 525 526 530
- 532 533 534 537 540 541 542 543 545 548 550 551 553 554 557 558 560 561
- 562 564 566 567 569 571 572 573 575 576 577 580 581 582 583 585 586 587
- 590 591 594 595 596 597 600 605 606 607 608 611 614 616 617 618 619 622
- 623 625 626 627 629 630 631 633 634 635 636 637 643 646 648 649 652 656
- 658 660 664 666 667 670 674 680 682 683 684 685 691 692 693 694 695 699
- 700 702 705 708 709 713 714 716 717 721 723 725 729 730 733 735 736 737
- 738 740 742 745 746 747 748 749 750 751]</t>
+          <t>[  0   1   2   4   6   7   9  10  12  15  17  19  20  24  26  27  33  34
+  37  40  43  44  45  47  48  50  51  60  62  63  65  66  67  69  70  72
+  73  74  75  76  77  79  84  85  86  88  89  94  95  96  97 100 102 105
+ 109 112 113 118 120 122 123 124 126 128 129 133 134 135 136 137 139 142
+ 144 146 147 150 151 152 153 156 157 158 160 161 165 169 170 173 174 176
+ 181 182 185 188 190 191 196 198 199 201 202 208 209 211 212 214 216 218
+ 219 222 225 226 228 229 231 235 236 237 238 244 246 248 254 256 257 260
+ 263 264 265 266 267 269 270 273 274 277 279 280 283 284 286 290 291 292
+ 294 295 297 298 299 301 306 308 310 311 312 314 316 319 320 323 326 328
+ 330 331 332 334 336 339 340 341 343 345 348 349 354 356 357 358 363 364
+ 365 372 374 376 377 378 379 384 387 388 389 391 393 394 395 400 402 403
+ 408 412 415 416 417 419 421 422 423 424 425 427 428 429 430 433 435 436
+ 437 438 439 440 441 442 443 444 445 448 450 451 455 457 458 459 462 463
+ 465 466 468 469 472 473 474 477 478 480 482 484 490 491 492 494 496 498
+ 499 500 501 505 511 513 514 515 517 518 520 521 523 525 528 530 531 533
+ 535 538 539 541 543 544 545 546 549 550 551 553 555 557 558 559 560 562
+ 566 567 570 571 572 575 576 578 581 582 583 587 588 593 594 597 601 602
+ 605 606 608 609 610 614 616 622 623 625 629 631 632 634 635 637 638 640
+ 644 646 655 658 659 660 661 663 665 666 668 671 672 674 676 677 680 681
+ 682 683 685 687 688 689 690 692 694 695 696 698 703 704 705 707 709 711
+ 713 716 721 723 728 729 731 738 740 741 743 745 747 748 749 750 751]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="E11" t="n">
-        <v>18.32127213478088</v>
+        <v>19.39720368385315</v>
       </c>
     </row>
     <row r="12">
@@ -1083,58 +1079,64 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 1 0 0 0 1 1 0 0 1 1 1 1 1 0 1 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0
- 1 1 0 0 0 0 0 0 1 1 0 0 1 1 1 0 1 1 0 0 0 0 1 1 0 1 0 1 0 0 1 1 1 1 0 1 1
- 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 1 1 1 1 1 1 0 0 1 1 1 0 1 1 1
- 1 0 0 1 1 0 0 1 0 1 1 0 1 1 0 1 1 0 1 1 1 1 0 0 1 1 0 0 1 1 1 0 1 1 1 1 1
- 1 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 1 1 1 0 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 0
- 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 1 1
- 1 0 0 1 1 0 0 0 1 1 0 0 0 1 0 1 1 0 0 0 1 1 0 0 1 1 1 1 1 0 1 1 1 1 1 1 0
- 0 0 0 1 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 1 1 0 1 1 0
- 0 1 1 1 1 0 1 1 0 0 1 1 0 1 0 1 0 0 1 1 0 1 1 0 0 1 0 0 1 0 1 1 1 0 0 0 1
- 0 0 1 0 0 1 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1 1 0 1 0 0 0 1 1 1 0
- 0 1 1 0 1 0 1 0 0 1 0 0 1 0 0 0 1 1 0 1 1 0 0 1 0 0 1 0 0 1 0 1 1 1 0 0 0
- 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 1 1 0 1 1 0 0 1 0 0 0 0 0
- 0 1 1 0 1 1 0 1 0 1 1 0 1 0 0 1 0 0 0 1 1 1 0 1 1 0 1 1 1 1 1 1 1 1 0 0 0
- 0 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 1 1 0 1 0 0 1 1 1 0 0 0 1 1 1 0 0 1 1 0 0
- 1 1 1 1 0 1 1 0 0 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 1 1 0 1 0 0 1 0 0 1 1 1 0
- 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 1 1 1 0 1 1 0 1 1 0 0 0 0 0 1 1
- 1 0 0 1 1 0 1 1 1 1 1 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1
- 0 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 1 1 1 1 1 0 0 0 0 1 0 1 1 0
- 0 0 1 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 1 1 0 0 1 1 1 1 0 0 0 0 0 0 1 0 1 0 1
- 0 1 1 0 1 0 0 0 0 0 0 1 1 0 1 0 1 0 1 0 0 1 0 1 0 1 0 1 1 1 1 0 1 1 0 0 0
- 0 1 0 0 1 1 1 1 1 0 1 0 0]</t>
+          <t>[1 1 1 0 0 1 1 0 1 1 1 0 1 1 1 0 1 1 1 1 1 1 1 0 1 1 1 0 0 0 0 1 1 1 1 0 1
+ 0 0 1 1 1 0 0 1 0 1 0 1 0 1 0 0 0 1 1 0 0 0 0 0 1 1 1 1 0 0 1 1 1 1 1 1 1
+ 0 1 1 1 1 0 0 1 0 1 1 1 1 1 1 0 1 1 1 1 1 1 0 1 1 0 1 1 0 1 0 1 1 0 0 0 1
+ 1 1 1 1 0 1 1 0 0 0 1 1 0 0 1 1 1 0 1 0 0 1 1 0 0 1 1 1 1 1 0 0 1 0 0 1 1
+ 1 0 0 1 1 1 1 0 0 0 0 1 1 1 0 0 1 1 0 0 1 0 1 1 1 0 0 0 1 0 1 1 1 1 1 1 1
+ 1 0 0 0 1 1 0 1 1 0 0 1 1 1 1 1 0 0 1 0 0 1 1 0 0 1 0 1 1 1 1 1 0 0 1 0 0
+ 1 1 0 1 0 0 0 0 1 0 1 0 1 0 1 1 1 1 1 1 1 0 1 1 1 0 0 1 1 1 1 0 1 0 0 0 1
+ 1 0 1 0 1 1 0 1 1 1 0 1 1 0 1 0 0 0 0 1 1 1 0 1 1 1 1 1 0 1 1 1 0 0 1 0 1
+ 1 0 1 0 1 1 1 1 1 1 1 1 1 1 0 1 1 1 1 0 0 1 1 1 1 0 0 1 1 1 0 1 1 1 0 1 0
+ 1 0 0 1 1 1 0 1 1 1 1 1 1 0 1 1 0 0 1 1 1 1 0 1 0 0 1 1 1 0 1 1 0 1 0 0 0
+ 0 1 1 0 0 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 0 1 1 0 1 0 1 1 1 1
+ 0 1 0 0 0 1 1 1 1 1 1 0 1 1 0 1 0 0 1 1 1 1 1 0 0 1 0 0 0 1 1 0 1 0 1 1 1
+ 0 0 1 0 1 1 1 0 1 1 0 1 1 0 1 0 0 1 0 1 1 1 0 0 1 1 0 0 0 0 1 1 1 1 1 1 1
+ 0 1 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 0 1 1 0 1 1 1 0 0 1 0 1 0 1 0 1 0 1 1 1
+ 0 0 0 1 1 0 0 1 0 0 1 0 1 1 0 0 1 0 0 0 1 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1 0
+ 1 1 1 0 1 1 0 1 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 1 1 0 0 1 0 0 0 1 1 0 0
+ 1 1 0 1 1 1 1 1 1 1 1 1 0 0 1 1 1 1 1 0 0 1 1 0 0 1 1 0 1 1 1 0 1 0 1 1 1
+ 1 1 0 0 1 1 1 0 0 1 1 1 0 0 1 1 1 0 1 0 1 0 0 0 1 1 1 1 1 1 0 1 0 1 0 0 0
+ 1 1 1 1 1 0 1 0 0 0 1 1 1 1 0 1 1 0 0 0 1 1 1 1 1 1 1 1 0 1 1 0 0 1 1 1 1
+ 1 0 1 0 1 1 1 1 1 1 0 1 0 1 1 0 1 1 0 0 0 1 1 0 0 0 0 1 0 0 1 1 1 1 1 1 0
+ 0 1 0 1 1 1 0 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[  0   2   3   4   5   6  10  11  14  15  16  17  18  20  24  25  27  28
-  37  38  45  46  49  50  51  53  54  59  60  62  64  67  68  69  70  72
-  73  75  76  78  79  85  89  92  93  96  97  98  99 100 101 104 105 106
- 108 109 110 111 114 115 118 120 121 123 124 126 127 129 130 131 132 135
- 136 139 140 141 143 144 145 146 147 148 149 155 157 159 161 164 165 166
- 167 171 172 175 176 179 189 191 192 193 195 202 203 212 216 217 218 220
- 221 222 225 226 230 231 235 237 238 242 243 246 247 248 249 250 252 253
- 254 255 256 257 262 263 264 266 270 273 284 285 286 287 290 291 293 294
- 297 298 299 300 302 303 306 307 309 311 314 315 317 318 321 324 326 327
- 328 332 335 338 339 342 343 348 350 354 357 359 360 362 366 367 368 371
- 372 374 376 379 382 386 387 389 390 393 396 399 401 402 403 409 412 413
- 414 416 425 426 427 429 431 432 434 435 438 445 446 448 449 451 453 454
- 456 459 463 464 465 467 468 470 471 472 473 474 475 476 477 486 488 489
- 491 492 494 497 498 500 503 504 505 509 510 511 514 515 518 519 520 521
- 523 524 528 532 535 537 539 542 543 545 548 551 552 553 556 562 563 566
- 572 576 577 578 580 581 583 584 590 591 592 595 596 598 599 600 601 602
- 603 605 607 609 625 628 630 631 634 639 642 645 650 651 652 653 654 655
- 656 661 663 664 668 669 672 675 679 680 684 685 688 689 690 691 698 700
- 702 704 705 707 714 715 717 719 721 724 726 728 730 731 732 733 735 736
- 741 744 745 746 747 748 750]</t>
+          <t>[  0   1   2   5   6   8   9  10  12  13  14  16  17  18  19  20  21  22
+  24  25  26  31  32  33  34  36  39  40  41  44  46  48  50  54  55  61
+  62  63  64  67  68  69  70  71  72  73  75  76  77  78  81  83  84  85
+  86  87  88  90  91  92  93  94  95  97  98 100 101 103 105 106 110 111
+ 112 113 114 116 117 121 122 125 126 127 129 132 133 136 137 138 139 140
+ 143 146 147 148 151 152 153 154 159 160 161 164 165 168 170 171 172 176
+ 178 179 180 181 182 183 184 185 189 190 192 193 196 197 198 199 200 203
+ 206 207 210 212 213 214 215 216 219 222 223 225 230 232 234 236 237 238
+ 239 240 241 242 244 245 246 249 250 251 252 254 258 259 261 263 264 266
+ 267 268 270 271 273 278 279 280 282 283 284 285 286 288 289 290 293 295
+ 296 298 300 301 302 303 304 305 306 307 308 309 311 312 313 314 317 318
+ 319 320 323 324 325 327 328 329 331 333 336 337 338 340 341 342 343 344
+ 345 347 348 351 352 353 354 356 359 360 361 363 364 366 371 372 375 376
+ 377 379 380 381 382 383 384 385 386 387 388 389 393 395 396 398 399 401
+ 403 404 405 406 408 412 413 414 415 416 417 419 420 422 425 426 427 428
+ 429 432 436 437 439 441 442 443 446 448 449 450 452 453 455 456 458 461
+ 463 464 465 468 469 474 475 476 477 478 479 480 482 484 487 489 490 492
+ 499 500 502 503 504 507 509 511 513 515 516 517 521 522 525 528 530 531
+ 534 538 539 540 541 542 543 545 546 547 548 550 551 552 553 555 556 557
+ 559 560 562 563 564 567 568 569 570 572 573 575 576 577 578 580 581 584
+ 588 589 592 593 595 596 597 598 599 600 601 602 603 606 607 608 609 610
+ 613 614 617 618 620 621 622 624 626 627 628 629 630 633 634 635 638 639
+ 640 643 644 645 647 649 653 654 655 656 657 658 660 662 666 667 668 669
+ 670 672 676 677 678 679 681 682 686 687 688 689 690 691 692 693 695 696
+ 699 700 701 702 703 705 707 708 709 710 711 712 714 716 717 719 720 724
+ 725 730 733 734 735 736 737 738 741 743 744 745 747 748 749 751 752]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E12" t="n">
-        <v>17.64581894874573</v>
+        <v>23.78650760650635</v>
       </c>
     </row>
   </sheetData>
